--- a/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
+++ b/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -584,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -622,18 +622,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -676,6 +674,12 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -712,21 +716,21 @@
   <autoFilter ref="A1:N43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{F1ED0188-0EC4-4445-B56B-B9849FE1BE22}" name="Nr Radiomics" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{D8415890-1219-4007-8BA7-AF1BFCE40801}" name="AlmostWhite" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{D8415890-1219-4007-8BA7-AF1BFCE40801}" name="AlmostWhite" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{54631EBD-F548-41F6-B0A0-DE5D5B6F1F6C}" name="totalBlack"/>
     <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="americaner"/>
-    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="0" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="9" dataCellStyle="Prozent">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="10" dataCellStyle="Prozent"/>
-    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="9" dataCellStyle="Prozent"/>
-    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="8" dataCellStyle="Prozent"/>
-    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="7" dataCellStyle="Prozent"/>
-    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="6" dataCellStyle="Prozent"/>
-    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="5" dataCellStyle="Prozent"/>
-    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="4" dataCellStyle="Prozent"/>
-    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="3" dataCellStyle="Prozent"/>
-    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="2" dataCellStyle="Prozent"/>
+    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="8" dataCellStyle="Prozent"/>
+    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="7" dataCellStyle="Prozent"/>
+    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="6" dataCellStyle="Prozent"/>
+    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="5" dataCellStyle="Prozent"/>
+    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="4" dataCellStyle="Prozent"/>
+    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="3" dataCellStyle="Prozent"/>
+    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="2" dataCellStyle="Prozent"/>
+    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="1" dataCellStyle="Prozent"/>
+    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="0" dataCellStyle="Prozent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,7 +1037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,49 +1575,49 @@
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>0.96643361900466096</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0.89477249730697195</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>0.84943858382700799</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
         <v>0.92584992876024585</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="5"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">

--- a/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
+++ b/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
@@ -29,7 +29,85 @@
     <author>Matthias Weinhold</author>
   </authors>
   <commentList>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{C4BCED88-77C3-40F0-B9BC-4B0640E5EA89}">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{050F3849-C17F-4977-BDD7-CBB176D1C82E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Macht so weit Sinn, da AlmostWhite ein sehr kleines ROI ist und sehr einheitlich
+total Black ist auch einheitlich aber viel größer
+americaner ist zur Hälfte uneinheitlich</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{E0C93044-D71A-473A-A59E-0F497D2D38A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Contrast=(1Ng,p(Ng,p−1)∑i=1Ng∑j=1Ngpipj(i−j)2)(1N2p∑i=1Ngsi), where pi≠0,pj≠0
+Contrast is a measure of the spatial intensity change, but is also dependent on the overall gray level dynamic range. Contrast is high when both the dynamic range and the spatial change rate are high, i.e. an image with a large range of gray levels, with large changes between voxels and their neighbourhood.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0" shapeId="0" xr:uid="{8528EC18-A841-4FBE-95E7-7EEF113FA219}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+A measure of the change from a pixel to its neighbour. A high value for busyness indicates a ‘busy’ image, with rapid changes of intensity between pixels and its neighbourhood.
+N.B. if Ng,p=1
+, then busyness=00. If this is the case, 0 is returned, as it concerns a fully homogeneous region.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{C4BCED88-77C3-40F0-B9BC-4B0640E5EA89}">
       <text>
         <r>
           <rPr>
@@ -54,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0" xr:uid="{5F43E9CC-9A59-4AA3-B0CD-ECF6AB93CC44}">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{5F43E9CC-9A59-4AA3-B0CD-ECF6AB93CC44}">
       <text>
         <r>
           <rPr>
@@ -86,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
   <si>
     <t>(2) Histogram - Variance</t>
   </si>
@@ -497,13 +575,22 @@
   </si>
   <si>
     <t>AlmostWhite</t>
+  </si>
+  <si>
+    <t>Noise</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,8 +631,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -584,7 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -626,12 +732,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -674,9 +806,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -712,25 +841,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:N43" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:N43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{F1ED0188-0EC4-4445-B56B-B9849FE1BE22}" name="Nr Radiomics" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{D8415890-1219-4007-8BA7-AF1BFCE40801}" name="AlmostWhite" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:Q43" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:Q43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{F1ED0188-0EC4-4445-B56B-B9849FE1BE22}" name="Nr Radiomics" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{D8415890-1219-4007-8BA7-AF1BFCE40801}" name="AlmostWhite" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{54631EBD-F548-41F6-B0A0-DE5D5B6F1F6C}" name="totalBlack"/>
     <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="americaner"/>
-    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="9" dataCellStyle="Prozent">
-      <calculatedColumnFormula>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</calculatedColumnFormula>
+    <tableColumn id="15" xr3:uid="{A1817684-A399-4342-AB8E-4A6759AFA77B}" name="Noise"/>
+    <tableColumn id="16" xr3:uid="{A8ECAF1C-C031-47B7-80EA-8E817060E5A9}" name="min" dataDxfId="1">
+      <calculatedColumnFormula>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="8" dataCellStyle="Prozent"/>
-    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="7" dataCellStyle="Prozent"/>
-    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="6" dataCellStyle="Prozent"/>
-    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="5" dataCellStyle="Prozent"/>
-    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="4" dataCellStyle="Prozent"/>
-    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="3" dataCellStyle="Prozent"/>
-    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="2" dataCellStyle="Prozent"/>
-    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="1" dataCellStyle="Prozent"/>
-    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="0" dataCellStyle="Prozent"/>
+    <tableColumn id="17" xr3:uid="{11746B08-19E1-426E-A083-CBE0105D2A9C}" name="max" dataDxfId="0">
+      <calculatedColumnFormula>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="2" dataCellStyle="Prozent">
+      <calculatedColumnFormula>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="11" dataCellStyle="Prozent"/>
+    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="10" dataCellStyle="Prozent"/>
+    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="9" dataCellStyle="Prozent"/>
+    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="8" dataCellStyle="Prozent"/>
+    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="7" dataCellStyle="Prozent"/>
+    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="6" dataCellStyle="Prozent"/>
+    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="5" dataCellStyle="Prozent"/>
+    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="4" dataCellStyle="Prozent"/>
+    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="3" dataCellStyle="Prozent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1033,11 +1169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE9F08D-8687-4A4B-9A20-EFAFFA74EC70}">
-  <dimension ref="A1:Y375"/>
+  <dimension ref="A1:AB375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,9 +1191,10 @@
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="22.77734375" customWidth="1"/>
     <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -1071,37 +1208,46 @@
         <v>43</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1114,37 +1260,48 @@
       <c r="D2" s="6">
         <v>573.17428695477997</v>
       </c>
-      <c r="E2" s="7">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.9263626310098757</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="9">
-        <v>992.25</v>
-      </c>
-      <c r="H2" s="9">
-        <v>992.25</v>
-      </c>
-      <c r="I2" s="9">
-        <v>991.03449999999998</v>
-      </c>
+      <c r="E2" s="6">
+        <v>151.34571556190701</v>
+      </c>
+      <c r="F2" s="6">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>134.37891734265</v>
+      </c>
+      <c r="G2" s="6">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>573.17428695477997</v>
+      </c>
+      <c r="H2" s="7">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>4.265358720618762</v>
+      </c>
+      <c r="I2" s="16"/>
       <c r="J2" s="9">
         <v>992.25</v>
       </c>
       <c r="K2" s="9">
+        <v>992.25</v>
+      </c>
+      <c r="L2" s="9">
+        <v>991.03449999999998</v>
+      </c>
+      <c r="M2" s="9">
+        <v>992.25</v>
+      </c>
+      <c r="N2" s="9">
         <v>952.56</v>
       </c>
-      <c r="L2" s="9">
+      <c r="O2" s="9">
         <v>952.56</v>
       </c>
-      <c r="M2" s="9">
+      <c r="P2" s="9">
         <v>971.38789999999995</v>
       </c>
-      <c r="N2" s="9">
+      <c r="Q2" s="9">
         <v>990.66240000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1157,37 +1314,48 @@
       <c r="D3">
         <v>3.82728361585737E-2</v>
       </c>
-      <c r="E3" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>13.257716875061295</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>60</v>
-      </c>
+      <c r="E3">
+        <v>-1.9011405389800999</v>
+      </c>
+      <c r="F3">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>-1.9011405389800999</v>
+      </c>
+      <c r="G3">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>1.3886850116087099</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>-0.73044837198290158</v>
+      </c>
+      <c r="I3" s="16"/>
       <c r="J3" s="10">
         <v>0</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1200,37 +1368,48 @@
       <c r="D4">
         <v>-1.86556239612957</v>
       </c>
-      <c r="E4" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>-14.848974684681844</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10">
-        <v>-2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>-2</v>
-      </c>
-      <c r="I4" s="9">
-        <v>-19951</v>
-      </c>
+      <c r="E4">
+        <v>2.9296052274754998</v>
+      </c>
+      <c r="F4">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>-1.86556239612957</v>
+      </c>
+      <c r="G4">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2.9296052274754998</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>-1.5703603554367678</v>
+      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="10">
         <v>-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10">
+        <v>-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>-19951</v>
+      </c>
+      <c r="M4" s="10">
+        <v>-2</v>
+      </c>
+      <c r="N4" s="9">
         <v>-18333</v>
       </c>
-      <c r="L4" s="9">
+      <c r="O4" s="9">
         <v>-18333</v>
       </c>
-      <c r="M4" s="9">
+      <c r="P4" s="9">
         <v>-19141</v>
       </c>
-      <c r="N4" s="9">
+      <c r="Q4" s="9">
         <v>-19936</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -1243,37 +1422,48 @@
       <c r="D5" s="13">
         <v>2.86100569135583E-2</v>
       </c>
-      <c r="E5" s="14">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.8821166643322977</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="10" t="s">
+      <c r="E5" s="13">
+        <v>1.1206275227241E-3</v>
+      </c>
+      <c r="F5" s="13">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.1206275227241E-3</v>
+      </c>
+      <c r="G5" s="13">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2.86100569135583E-2</v>
+      </c>
+      <c r="H5" s="14">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>25.530389298320074</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="K5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="M5" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="N5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="O5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1286,37 +1476,48 @@
       <c r="D6" s="18">
         <v>14.2653654660991</v>
       </c>
-      <c r="E6" s="19">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.18081250360680756</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="10" t="s">
+      <c r="E6" s="18">
+        <v>64.8367268552403</v>
+      </c>
+      <c r="F6" s="18">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>14.252357255349599</v>
+      </c>
+      <c r="G6" s="18">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>64.8367268552403</v>
+      </c>
+      <c r="H6" s="19">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>4.5491932101901202</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1329,37 +1530,48 @@
       <c r="D7">
         <v>0.96462525037383695</v>
       </c>
-      <c r="E7" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.6359296885644932</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="9">
+      <c r="E7">
+        <v>0.84155620308673496</v>
+      </c>
+      <c r="F7">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.84155620308673496</v>
+      </c>
+      <c r="G7">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.96462525037383695</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.1462398433232366</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="9">
         <v>15620</v>
       </c>
-      <c r="H7" s="9">
+      <c r="K7" s="9">
         <v>15620</v>
       </c>
-      <c r="I7" s="9">
+      <c r="L7" s="9">
         <v>17030</v>
       </c>
-      <c r="J7" s="9">
+      <c r="M7" s="9">
         <v>17774</v>
       </c>
-      <c r="K7" s="9">
+      <c r="N7" s="9">
         <v>18161</v>
       </c>
-      <c r="L7" s="9">
+      <c r="O7" s="9">
         <v>18161</v>
       </c>
-      <c r="M7" s="9">
+      <c r="P7" s="9">
         <v>19324</v>
       </c>
-      <c r="N7" s="9">
+      <c r="Q7" s="9">
         <v>19741</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1372,37 +1584,48 @@
       <c r="D8">
         <v>0.54979124664533396</v>
       </c>
-      <c r="E8" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.777069962752478</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="10" t="s">
+      <c r="E8">
+        <v>0.28898515037825401</v>
+      </c>
+      <c r="F8">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.28898515037825401</v>
+      </c>
+      <c r="G8">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.54979124664533396</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.9024896120984405</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="P8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="Q8" s="10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1415,37 +1638,48 @@
       <c r="D9">
         <v>4.1155629107421602E-3</v>
       </c>
-      <c r="E9" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.98545628955236508</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="10" t="s">
+      <c r="E9">
+        <v>6.9126873644987999E-3</v>
+      </c>
+      <c r="F9">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>4.1155629107421602E-3</v>
+      </c>
+      <c r="G9">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>6.9126873644987999E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.679645655872682</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="P9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="Q9" s="10" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1458,37 +1692,48 @@
       <c r="D10">
         <v>7.8094061147113001</v>
       </c>
-      <c r="E10" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.91651186838165166</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="11">
-        <v>3.6621000000000001</v>
-      </c>
-      <c r="H10" s="11">
-        <v>3.6621000000000001</v>
-      </c>
-      <c r="I10" s="11">
-        <v>3.6215000000000002</v>
-      </c>
+      <c r="E10">
+        <v>10.2697560320119</v>
+      </c>
+      <c r="F10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>7.8094061147113001</v>
+      </c>
+      <c r="G10">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>10.2697560320119</v>
+      </c>
+      <c r="H10" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.3150495544937548</v>
+      </c>
+      <c r="I10" s="16"/>
       <c r="J10" s="11">
         <v>3.6621000000000001</v>
       </c>
       <c r="K10" s="11">
+        <v>3.6621000000000001</v>
+      </c>
+      <c r="L10" s="11">
+        <v>3.6215000000000002</v>
+      </c>
+      <c r="M10" s="11">
+        <v>3.6621000000000001</v>
+      </c>
+      <c r="N10" s="11">
         <v>3.4134000000000002</v>
       </c>
-      <c r="L10" s="11">
+      <c r="O10" s="11">
         <v>3.4134000000000002</v>
       </c>
-      <c r="M10" s="11">
+      <c r="P10" s="11">
         <v>3.4821</v>
       </c>
-      <c r="N10" s="11">
+      <c r="Q10" s="11">
         <v>3.7128000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1501,37 +1746,48 @@
       <c r="D11">
         <v>4.9221503906226698E-2</v>
       </c>
-      <c r="E11" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.3527400324125647</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="11">
-        <v>0.61034999999999995</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.61034999999999995</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.60968</v>
-      </c>
+      <c r="E11">
+        <v>4.9956491397040198E-2</v>
+      </c>
+      <c r="F11">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>3.0626406749298101E-2</v>
+      </c>
+      <c r="G11">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>4.9956491397040198E-2</v>
+      </c>
+      <c r="H11" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.6311574454677125</v>
+      </c>
+      <c r="I11" s="16"/>
       <c r="J11" s="11">
         <v>0.61034999999999995</v>
       </c>
       <c r="K11" s="11">
+        <v>0.61034999999999995</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.60968</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.61034999999999995</v>
+      </c>
+      <c r="N11" s="11">
         <v>0.58501000000000003</v>
       </c>
-      <c r="L11" s="11">
+      <c r="O11" s="11">
         <v>0.58501000000000003</v>
       </c>
-      <c r="M11" s="11">
+      <c r="P11" s="11">
         <v>0.59708000000000006</v>
       </c>
-      <c r="N11" s="11">
+      <c r="Q11" s="11">
         <v>0.60929999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1544,170 +1800,214 @@
       <c r="D12">
         <v>2.3001205094108998</v>
       </c>
-      <c r="E12" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.39625378006346001</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="10" t="s">
+      <c r="E12">
+        <v>5.8802350985768701</v>
+      </c>
+      <c r="F12">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.3001205094108998</v>
+      </c>
+      <c r="G12">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>5.8802350985768701</v>
+      </c>
+      <c r="H12" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>2.5564900075965578</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="L12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="M12" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="N12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="O12" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="P12" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="Q12" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="1"/>
-    </row>
-    <row r="13" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="12">
         <v>0.96643361900466096</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="13">
         <v>0.89477249730697195</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="13">
         <v>0.84943858382700799</v>
       </c>
-      <c r="E13" s="7">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.92584992876024585</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="13">
+        <v>0.94328061645038597</v>
+      </c>
+      <c r="F13" s="13">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.84943858382700799</v>
+      </c>
+      <c r="G13" s="13">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.94328061645038597</v>
+      </c>
+      <c r="H13" s="14">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.1104753591490839</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="K13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="L13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="M13" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="N13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="O13" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="P13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="Q13" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="Y13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="AB13" s="12"/>
+    </row>
+    <row r="14" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="12">
         <v>1.1447902571041999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="13">
         <v>1.64738431048262</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="13">
         <v>6.2671254789951503</v>
       </c>
-      <c r="E14" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.4390271931993508</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="9">
+      <c r="E14" s="13">
+        <v>1.33779163135782</v>
+      </c>
+      <c r="F14" s="13">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.33779163135782</v>
+      </c>
+      <c r="G14" s="13">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>6.2671254789951503</v>
+      </c>
+      <c r="H14" s="14">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>4.68467983510571</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="25">
         <v>804847</v>
       </c>
-      <c r="H14" s="9">
+      <c r="K14" s="25">
         <v>804847</v>
       </c>
-      <c r="I14" s="9">
+      <c r="L14" s="25">
         <v>472115</v>
       </c>
-      <c r="J14" s="9">
+      <c r="M14" s="25">
         <v>329121</v>
       </c>
-      <c r="K14" s="9">
+      <c r="N14" s="25">
         <v>397624</v>
       </c>
-      <c r="L14" s="9">
+      <c r="O14" s="25">
         <v>397624</v>
       </c>
-      <c r="M14" s="9">
+      <c r="P14" s="25">
         <v>235524</v>
       </c>
-      <c r="N14" s="9">
+      <c r="Q14" s="25">
         <v>168160</v>
       </c>
-      <c r="Y14" s="1"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="AB14" s="12"/>
+    </row>
+    <row r="15" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="26">
         <v>2.9859797554021902E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="27">
         <v>2.57469882473336E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="27">
         <v>2.5830479995548501E-2</v>
       </c>
-      <c r="E15" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.86226265267714997</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="10" t="s">
+      <c r="E15" s="27">
+        <v>2.0490666090028101E-2</v>
+      </c>
+      <c r="F15" s="27">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.0490666090028101E-2</v>
+      </c>
+      <c r="G15" s="27">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2.5830479995548501E-2</v>
+      </c>
+      <c r="H15" s="28">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.2605973803906283</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="K15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="L15" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="M15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="N15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="O15" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="P15" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="10" t="s">
+      <c r="Q15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB15" s="26"/>
+    </row>
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1720,38 +2020,49 @@
       <c r="D16" s="6">
         <v>0.68551103815709802</v>
       </c>
-      <c r="E16" s="7">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.83141463437513619</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="10" t="s">
+      <c r="E16" s="6">
+        <v>0.86314848873531702</v>
+      </c>
+      <c r="F16" s="6">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.68551103815709802</v>
+      </c>
+      <c r="G16" s="6">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.86314848873531702</v>
+      </c>
+      <c r="H16" s="7">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.2591314226766834</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="K16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="L16" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="M16" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="N16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="O16" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="P16" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="10" t="s">
+      <c r="Q16" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="Y16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1764,38 +2075,49 @@
       <c r="D17">
         <v>0.64771657471204003</v>
       </c>
-      <c r="E17" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.89098562635190637</v>
-      </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="10" t="s">
+      <c r="E17">
+        <v>0.91542258869480297</v>
+      </c>
+      <c r="F17">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.64771657471204003</v>
+      </c>
+      <c r="G17">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.91542258869480297</v>
+      </c>
+      <c r="H17" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.4133073390962381</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="K17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="L17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="M17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="N17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="O17" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="P17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="Q17" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="Y17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB17" s="1"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1808,38 +2130,49 @@
       <c r="D18">
         <v>3.2887752814288802E-2</v>
       </c>
-      <c r="E18" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.73481502389169018</v>
-      </c>
-      <c r="F18" s="16"/>
-      <c r="G18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="E18">
+        <v>1.8631858204439401E-2</v>
+      </c>
+      <c r="F18">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.8631858204439401E-2</v>
+      </c>
+      <c r="G18">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>3.2887752814288802E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.765135417703676</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="Y18" s="1"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB18" s="1"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1852,38 +2185,49 @@
       <c r="D19">
         <v>670.83182221553102</v>
       </c>
-      <c r="E19" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.0651202493512502</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H19" s="9">
-        <v>25000</v>
-      </c>
-      <c r="I19" s="9">
-        <v>24783</v>
-      </c>
+      <c r="E19">
+        <v>1024.6835388654199</v>
+      </c>
+      <c r="F19">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>554.91359724294705</v>
+      </c>
+      <c r="G19">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>1024.6835388654199</v>
+      </c>
+      <c r="H19" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.846564120894667</v>
+      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="9">
         <v>25000</v>
       </c>
       <c r="K19" s="9">
+        <v>25000</v>
+      </c>
+      <c r="L19" s="9">
+        <v>24783</v>
+      </c>
+      <c r="M19" s="9">
+        <v>25000</v>
+      </c>
+      <c r="N19" s="9">
         <v>24659</v>
       </c>
-      <c r="L19" s="9">
+      <c r="O19" s="9">
         <v>24659</v>
       </c>
-      <c r="M19" s="9">
+      <c r="P19" s="9">
         <v>24806</v>
       </c>
-      <c r="N19" s="9">
+      <c r="Q19" s="9">
         <v>25024</v>
       </c>
-      <c r="Y19" s="1"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AB19" s="1"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1896,37 +2240,48 @@
       <c r="D20">
         <v>1064.45735260268</v>
       </c>
-      <c r="E20" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.4639859437086666</v>
-      </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="10" t="s">
+      <c r="E20">
+        <v>1259.20688715192</v>
+      </c>
+      <c r="F20">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>872.27338274901501</v>
+      </c>
+      <c r="G20">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>1259.20688715192</v>
+      </c>
+      <c r="H20" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.4435920114671663</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="K20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="L20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="M20" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="N20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1939,37 +2294,48 @@
       <c r="D21">
         <v>2.6032083077960999E-3</v>
       </c>
-      <c r="E21" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.14657400351107455</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21">
+        <v>2.8874205465106901E-2</v>
+      </c>
+      <c r="F21">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.6032083077960999E-3</v>
+      </c>
+      <c r="G21">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2.8874205465106901E-2</v>
+      </c>
+      <c r="H21" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>11.091776781225805</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="K21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="L21" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="M21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="N21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="O21" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="M21" s="9">
+      <c r="P21" s="9">
         <v>13874</v>
       </c>
-      <c r="N21" s="9">
+      <c r="Q21" s="9">
         <v>12052</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1982,37 +2348,48 @@
       <c r="D22" s="2">
         <v>4.83412894108827E-6</v>
       </c>
-      <c r="E22" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.16883541590264958</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="9">
+      <c r="E22" s="2">
+        <v>2.5806423486746799E-5</v>
+      </c>
+      <c r="F22" s="31">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>4.83412894108827E-6</v>
+      </c>
+      <c r="G22" s="31">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2.5806423486746799E-5</v>
+      </c>
+      <c r="H22" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>5.3383812887988871</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="9">
         <v>503030</v>
       </c>
-      <c r="H22" s="9">
+      <c r="K22" s="9">
         <v>503030</v>
       </c>
-      <c r="I22" s="9">
+      <c r="L22" s="9">
         <v>301993</v>
       </c>
-      <c r="J22" s="9">
+      <c r="M22" s="9">
         <v>205701</v>
       </c>
-      <c r="K22" s="9">
+      <c r="N22" s="9">
         <v>282236</v>
       </c>
-      <c r="L22" s="9">
+      <c r="O22" s="9">
         <v>282236</v>
       </c>
-      <c r="M22" s="9">
+      <c r="P22" s="9">
         <v>161942</v>
       </c>
-      <c r="N22" s="9">
+      <c r="Q22" s="9">
         <v>88606</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2025,37 +2402,48 @@
       <c r="D23">
         <v>0.58385541969906496</v>
       </c>
-      <c r="E23" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.79414239526030284</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="9">
+      <c r="E23">
+        <v>0.67108160075977596</v>
+      </c>
+      <c r="F23">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.52585659280836905</v>
+      </c>
+      <c r="G23">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.67108160075977596</v>
+      </c>
+      <c r="H23" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.2761684648200833</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="9">
         <v>2012118</v>
       </c>
-      <c r="H23" s="9">
+      <c r="K23" s="9">
         <v>2012118</v>
       </c>
-      <c r="I23" s="9">
+      <c r="L23" s="9">
         <v>1152604</v>
       </c>
-      <c r="J23" s="9">
+      <c r="M23" s="9">
         <v>822803</v>
       </c>
-      <c r="K23" s="9">
+      <c r="N23" s="9">
         <v>859176</v>
       </c>
-      <c r="L23" s="9">
+      <c r="O23" s="9">
         <v>859176</v>
       </c>
-      <c r="M23" s="9">
+      <c r="P23" s="9">
         <v>529855</v>
       </c>
-      <c r="N23" s="9">
+      <c r="Q23" s="9">
         <v>486377</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2068,37 +2456,48 @@
       <c r="D24">
         <v>24381.35111023</v>
       </c>
-      <c r="E24" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>308.9871906450627</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="11">
+      <c r="E24">
+        <v>155.64084385267199</v>
+      </c>
+      <c r="F24">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>155.64084385267199</v>
+      </c>
+      <c r="G24">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>24381.35111023</v>
+      </c>
+      <c r="H24" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>156.65136802592212</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="11">
         <v>2.5769000000000002</v>
       </c>
-      <c r="H24" s="11">
+      <c r="K24" s="11">
         <v>2.5769000000000002</v>
       </c>
-      <c r="I24" s="11">
+      <c r="L24" s="11">
         <v>1.0172000000000001</v>
       </c>
-      <c r="J24" s="11">
+      <c r="M24" s="11">
         <v>1.0495000000000001</v>
       </c>
-      <c r="K24" s="11">
+      <c r="N24" s="11">
         <v>3.8094999999999999</v>
       </c>
-      <c r="L24" s="11">
+      <c r="O24" s="11">
         <v>3.8094999999999999</v>
       </c>
-      <c r="M24" s="11">
+      <c r="P24" s="11">
         <v>1.897</v>
       </c>
-      <c r="N24" s="11">
+      <c r="Q24" s="11">
         <v>1.5328999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2111,37 +2510,48 @@
       <c r="D25">
         <v>3.8142694801213198E-2</v>
       </c>
-      <c r="E25" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.1001857503940573</v>
-      </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="10" t="s">
+      <c r="E25">
+        <v>2.6213786651107501E-2</v>
+      </c>
+      <c r="F25">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.6213786651107501E-2</v>
+      </c>
+      <c r="G25">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>3.8142694801213198E-2</v>
+      </c>
+      <c r="H25" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.4550623802990978</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="K25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="I25" s="11">
+      <c r="L25" s="11">
         <v>5.8940999999999999</v>
       </c>
-      <c r="J25" s="11">
+      <c r="M25" s="11">
         <v>7.1146000000000003</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="N25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="O25" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="11">
+      <c r="P25" s="11">
         <v>2.6766000000000001</v>
       </c>
-      <c r="N25" s="11">
+      <c r="Q25" s="11">
         <v>2.3365</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,37 +2564,48 @@
       <c r="D26">
         <v>1.3306090676521E-2</v>
       </c>
-      <c r="E26" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.53389491585574644</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="11">
+      <c r="E26">
+        <v>1.4391636711885401E-2</v>
+      </c>
+      <c r="F26">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.3306090676521E-2</v>
+      </c>
+      <c r="G26">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>1.4391636711885401E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.0815826422466728</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="11">
         <v>1.5625E-4</v>
       </c>
-      <c r="H26" s="11">
+      <c r="K26" s="11">
         <v>1.5625E-4</v>
       </c>
-      <c r="I26" s="11">
+      <c r="L26" s="11">
         <v>6.6683999999999997E-3</v>
       </c>
-      <c r="J26" s="11">
+      <c r="M26" s="11">
         <v>9.7656000000000001E-6</v>
       </c>
-      <c r="K26" s="11">
+      <c r="N26" s="11">
         <v>7.0529999999999996E-4</v>
       </c>
-      <c r="L26" s="11">
+      <c r="O26" s="11">
         <v>7.0529999999999996E-4</v>
       </c>
-      <c r="M26" s="11">
+      <c r="P26" s="11">
         <v>0.21054999999999999</v>
       </c>
-      <c r="N26" s="11">
+      <c r="Q26" s="11">
         <v>9.8125999999999999E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,37 +2618,48 @@
       <c r="D27">
         <v>616.93068191306099</v>
       </c>
-      <c r="E27" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.9980173061307549</v>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="10">
+      <c r="E27">
+        <v>975.94492030429501</v>
+      </c>
+      <c r="F27">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>502.474239462855</v>
+      </c>
+      <c r="G27">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>975.94492030429501</v>
+      </c>
+      <c r="H27" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.9422785163028062</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="10">
         <v>64000000</v>
       </c>
-      <c r="H27" s="10">
+      <c r="K27" s="10">
         <v>64000000</v>
       </c>
-      <c r="I27" s="10">
+      <c r="L27" s="10">
         <v>21393600</v>
       </c>
-      <c r="J27" s="11">
+      <c r="M27" s="11">
         <v>10240000000000</v>
       </c>
-      <c r="K27" s="10">
+      <c r="N27" s="10">
         <v>16640000</v>
       </c>
-      <c r="L27" s="10">
+      <c r="O27" s="10">
         <v>16640000</v>
       </c>
-      <c r="M27" s="10">
+      <c r="P27" s="10">
         <v>5491600</v>
       </c>
-      <c r="N27" s="11">
+      <c r="Q27" s="11">
         <v>10256000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>26</v>
       </c>
@@ -2240,20 +2672,22 @@
       <c r="D28" s="13">
         <v>0.96609788957646203</v>
       </c>
-      <c r="E28" s="14">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>2.5026298467770953</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="E28" s="13">
+        <v>5.8617928303400103E-2</v>
+      </c>
+      <c r="F28" s="13">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>5.8617928303400103E-2</v>
+      </c>
+      <c r="G28" s="13">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.96609788957646203</v>
+      </c>
+      <c r="H28" s="14">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>16.481269767434345</v>
+      </c>
+      <c r="I28" s="16"/>
       <c r="J28" s="10" t="s">
         <v>51</v>
       </c>
@@ -2269,8 +2703,17 @@
       <c r="N28" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2283,37 +2726,48 @@
       <c r="D29">
         <v>0.31853709953519099</v>
       </c>
-      <c r="E29" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.64171322883984783</v>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>72</v>
-      </c>
+      <c r="E29">
+        <v>0.41709435094347902</v>
+      </c>
+      <c r="F29">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.262418942278828</v>
+      </c>
+      <c r="G29">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.41709435094347902</v>
+      </c>
+      <c r="H29" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.5894216603476121</v>
+      </c>
+      <c r="I29" s="16"/>
       <c r="J29" s="10">
         <v>1</v>
       </c>
-      <c r="K29" s="10" t="s">
-        <v>51</v>
+      <c r="K29" s="10">
+        <v>1</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>111</v>
+        <v>72</v>
+      </c>
+      <c r="M29" s="10">
+        <v>1</v>
       </c>
       <c r="N29" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2326,37 +2780,48 @@
       <c r="D30">
         <v>0.122970403237603</v>
       </c>
-      <c r="E30" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.25382698280209803</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="11">
+      <c r="E30">
+        <v>0.40782792665726397</v>
+      </c>
+      <c r="F30">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.122970403237603</v>
+      </c>
+      <c r="G30">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.40782792665726397</v>
+      </c>
+      <c r="H30" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>3.3164722235582187</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="11">
         <v>1.25</v>
       </c>
-      <c r="H30" s="11">
+      <c r="K30" s="11">
         <v>1.25</v>
-      </c>
-      <c r="I30" s="11">
-        <v>2.5</v>
-      </c>
-      <c r="J30" s="11">
-        <v>0.3125</v>
-      </c>
-      <c r="K30" s="11">
-        <v>2.5</v>
       </c>
       <c r="L30" s="11">
         <v>2.5</v>
       </c>
       <c r="M30" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="N30" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="O30" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="P30" s="11">
         <v>5</v>
       </c>
-      <c r="N30" s="11">
+      <c r="Q30" s="11">
         <v>0.3125</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2369,20 +2834,22 @@
       <c r="D31">
         <v>2.03731230460259E-3</v>
       </c>
-      <c r="E31" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.22435009620495286</v>
-      </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="E31">
+        <v>1.6150433084840901E-3</v>
+      </c>
+      <c r="F31">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.6150433084840901E-3</v>
+      </c>
+      <c r="G31">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>4.4574875909837103E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>2.7599802231728336</v>
+      </c>
+      <c r="I31" s="16"/>
       <c r="J31" s="10" t="s">
         <v>54</v>
       </c>
@@ -2398,8 +2865,17 @@
       <c r="N31" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2412,20 +2888,22 @@
       <c r="D32">
         <v>1024.4890959555901</v>
       </c>
-      <c r="E32" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>1.215271028926983</v>
-      </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="9">
-        <v>25000</v>
-      </c>
-      <c r="H32" s="9">
-        <v>25000</v>
-      </c>
-      <c r="I32" s="9">
-        <v>25000</v>
-      </c>
+      <c r="E32">
+        <v>1149.3478298461</v>
+      </c>
+      <c r="F32">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>663.12665929203501</v>
+      </c>
+      <c r="G32">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>1149.3478298461</v>
+      </c>
+      <c r="H32" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.7332251896992994</v>
+      </c>
+      <c r="I32" s="16"/>
       <c r="J32" s="9">
         <v>25000</v>
       </c>
@@ -2441,8 +2919,17 @@
       <c r="N32" s="9">
         <v>25000</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="9">
+        <v>25000</v>
+      </c>
+      <c r="P32" s="9">
+        <v>25000</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2455,37 +2942,48 @@
       <c r="D33">
         <v>8.0272094235240296E-4</v>
       </c>
-      <c r="E33" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.20035778559034295</v>
-      </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="11">
+      <c r="E33">
+        <v>9.3033943128352297E-4</v>
+      </c>
+      <c r="F33">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>8.0272094235240296E-4</v>
+      </c>
+      <c r="G33">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>1.80159019722937E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>2.2443542982069764</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="11">
         <v>9.7656000000000001E-5</v>
       </c>
-      <c r="H33" s="11">
+      <c r="K33" s="11">
         <v>9.7656000000000001E-5</v>
       </c>
-      <c r="I33" s="11">
+      <c r="L33" s="11">
         <v>3.3475000000000002E-3</v>
       </c>
-      <c r="J33" s="11">
+      <c r="M33" s="11">
         <v>6.1035000000000001E-6</v>
       </c>
-      <c r="K33" s="11">
+      <c r="N33" s="11">
         <v>3.3908000000000001E-4</v>
       </c>
-      <c r="L33" s="11">
+      <c r="O33" s="11">
         <v>3.3908000000000001E-4</v>
       </c>
-      <c r="M33" s="11">
+      <c r="P33" s="11">
         <v>5.9679000000000003E-2</v>
       </c>
-      <c r="N33" s="11">
+      <c r="Q33" s="11">
         <v>6.4268E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2498,37 +2996,48 @@
       <c r="D34">
         <v>605.98062568427099</v>
       </c>
-      <c r="E34" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.94474783600656753</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="11">
+      <c r="E34">
+        <v>776.28842844242695</v>
+      </c>
+      <c r="F34">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>356.36274881581397</v>
+      </c>
+      <c r="G34">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>776.28842844242695</v>
+      </c>
+      <c r="H34" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>2.1783658113032782</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="11">
         <v>3.9062E-4</v>
       </c>
-      <c r="H34" s="11">
+      <c r="K34" s="11">
         <v>3.9062E-4</v>
       </c>
-      <c r="I34" s="11">
+      <c r="L34" s="11">
         <v>1.9952000000000001E-2</v>
       </c>
-      <c r="J34" s="11">
+      <c r="M34" s="11">
         <v>2.4414E-5</v>
       </c>
-      <c r="K34" s="11">
+      <c r="N34" s="11">
         <v>2.1700999999999999E-3</v>
       </c>
-      <c r="L34" s="11">
+      <c r="O34" s="11">
         <v>2.1700999999999999E-3</v>
       </c>
-      <c r="M34" s="11">
+      <c r="P34" s="11">
         <v>0.81405000000000005</v>
       </c>
-      <c r="N34" s="11">
+      <c r="Q34" s="11">
         <v>2.3356000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2541,37 +3050,48 @@
       <c r="D35">
         <v>3631.3438330672602</v>
       </c>
-      <c r="E35" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>553.14191616475682</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="10">
+      <c r="E35">
+        <v>25.302233788752801</v>
+      </c>
+      <c r="F35">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>25.302233788752801</v>
+      </c>
+      <c r="G35">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>3631.3438330672602</v>
+      </c>
+      <c r="H35" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>143.51870524101489</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="10">
         <v>40000000</v>
       </c>
-      <c r="H35" s="10">
+      <c r="K35" s="10">
         <v>40000000</v>
       </c>
-      <c r="I35" s="10">
+      <c r="L35" s="10">
         <v>13774800</v>
       </c>
-      <c r="J35" s="10">
+      <c r="M35" s="10">
         <v>640000000</v>
       </c>
-      <c r="K35" s="10">
+      <c r="N35" s="10">
         <v>12800000</v>
       </c>
-      <c r="L35" s="10">
+      <c r="O35" s="10">
         <v>12800000</v>
       </c>
-      <c r="M35" s="10">
+      <c r="P35" s="10">
         <v>4028500</v>
       </c>
-      <c r="N35" s="10">
+      <c r="Q35" s="10">
         <v>610304000</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2584,37 +3104,48 @@
       <c r="D36">
         <v>524509.12539651105</v>
       </c>
-      <c r="E36" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>246.35554962191341</v>
-      </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="10">
+      <c r="E36">
+        <v>24463.860625972698</v>
+      </c>
+      <c r="F36">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>24463.860625972698</v>
+      </c>
+      <c r="G36">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>628652.93408923305</v>
+      </c>
+      <c r="H36" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>25.697208780768118</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="10">
         <v>160000000</v>
       </c>
-      <c r="H36" s="10">
+      <c r="K36" s="10">
         <v>160000000</v>
       </c>
-      <c r="I36" s="10">
+      <c r="L36" s="10">
         <v>51868800</v>
       </c>
-      <c r="J36" s="11">
+      <c r="M36" s="11">
         <v>25600000000000</v>
       </c>
-      <c r="K36" s="10">
+      <c r="N36" s="10">
         <v>32000000</v>
       </c>
-      <c r="L36" s="10">
+      <c r="O36" s="10">
         <v>32000000</v>
       </c>
-      <c r="M36" s="10">
+      <c r="P36" s="10">
         <v>11344000</v>
       </c>
-      <c r="N36" s="11">
+      <c r="Q36" s="11">
         <v>26870000000000</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -2627,37 +3158,48 @@
       <c r="D37" s="2">
         <v>1.7442027826775101E-5</v>
       </c>
-      <c r="E37" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>7.442364307914188E-3</v>
-      </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="11">
+      <c r="E37" s="2">
+        <v>4.2714045033201599E-4</v>
+      </c>
+      <c r="F37" s="31">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.7442027826775101E-5</v>
+      </c>
+      <c r="G37" s="31">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>4.2714045033201599E-4</v>
+      </c>
+      <c r="H37" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>24.489150835794248</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="11">
         <v>2.4414000000000002E-2</v>
       </c>
-      <c r="H37" s="11">
+      <c r="K37" s="11">
         <v>2.4414000000000002E-2</v>
       </c>
-      <c r="I37" s="11">
+      <c r="L37" s="11">
         <v>3.0980999999999999E-3</v>
       </c>
-      <c r="J37" s="11">
+      <c r="M37" s="11">
         <v>6.1035000000000004E-3</v>
       </c>
-      <c r="K37" s="11">
+      <c r="N37" s="11">
         <v>4.0689999999999997E-2</v>
       </c>
-      <c r="L37" s="11">
+      <c r="O37" s="11">
         <v>4.0689999999999997E-2</v>
       </c>
-      <c r="M37" s="11">
+      <c r="P37" s="11">
         <v>3.0113000000000002E-3</v>
       </c>
-      <c r="N37" s="11">
+      <c r="Q37" s="11">
         <v>5.8688000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -2670,37 +3212,48 @@
       <c r="D38" s="2">
         <v>2.9563755240274599E-6</v>
       </c>
-      <c r="E38" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>5.2030622193535027E-2</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="9">
+      <c r="E38" s="2">
+        <v>9.6939104436278199E-7</v>
+      </c>
+      <c r="F38" s="31">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>9.6939104436278199E-7</v>
+      </c>
+      <c r="G38" s="31">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2.9563755240274599E-6</v>
+      </c>
+      <c r="H38" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>3.0497244029841428</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="9">
         <v>624998</v>
       </c>
-      <c r="H38" s="9">
+      <c r="K38" s="9">
         <v>624998</v>
       </c>
-      <c r="I38" s="9">
+      <c r="L38" s="9">
         <v>26512</v>
       </c>
-      <c r="J38" s="9">
+      <c r="M38" s="9">
         <v>2499998</v>
       </c>
-      <c r="K38" s="9">
+      <c r="N38" s="9">
         <v>270832</v>
       </c>
-      <c r="L38" s="9">
+      <c r="O38" s="9">
         <v>270832</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="P38" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="N38" s="9">
+      <c r="Q38" s="9">
         <v>2407690</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -2713,37 +3266,48 @@
       <c r="D39">
         <v>4.9336800087102601E-4</v>
       </c>
-      <c r="E39" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>2.0512829179371448E-2</v>
-      </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="11">
+      <c r="E39">
+        <v>5.9927522779313703E-4</v>
+      </c>
+      <c r="F39">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>4.5192305856570699E-4</v>
+      </c>
+      <c r="G39">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>5.9927522779313703E-4</v>
+      </c>
+      <c r="H39" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.3260558770669717</v>
+      </c>
+      <c r="I39" s="16"/>
+      <c r="J39" s="11">
         <v>2.7715999999999998</v>
       </c>
-      <c r="H39" s="11">
+      <c r="K39" s="11">
         <v>2.7715999999999998</v>
       </c>
-      <c r="I39" s="11">
+      <c r="L39" s="11">
         <v>1.7411000000000001</v>
       </c>
-      <c r="J39" s="11">
+      <c r="M39" s="11">
         <v>1.55</v>
       </c>
-      <c r="K39" s="11">
+      <c r="N39" s="11">
         <v>1.2934000000000001</v>
       </c>
-      <c r="L39" s="11">
+      <c r="O39" s="11">
         <v>1.2934000000000001</v>
       </c>
-      <c r="M39" s="11">
+      <c r="P39" s="11">
         <v>0.87336000000000003</v>
       </c>
-      <c r="N39" s="11">
+      <c r="Q39" s="11">
         <v>0.83669000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -2756,37 +3320,48 @@
       <c r="D40">
         <v>0.216033581741082</v>
       </c>
-      <c r="E40" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.33634440235495999</v>
-      </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="10" t="s">
+      <c r="E40">
+        <v>0.44107414328839201</v>
+      </c>
+      <c r="F40">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.15763360169356899</v>
+      </c>
+      <c r="G40">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.44107414328839201</v>
+      </c>
+      <c r="H40" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>2.7980972238762631</v>
+      </c>
+      <c r="I40" s="16"/>
+      <c r="J40" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="K40" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="10" t="s">
+      <c r="L40" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="M40" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="N40" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="O40" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="P40" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="Q40" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -2799,37 +3374,48 @@
       <c r="D41">
         <v>4.0760544272338697</v>
       </c>
-      <c r="E41" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>65.825228509107575</v>
-      </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="11">
+      <c r="E41">
+        <v>1.5538677490845401</v>
+      </c>
+      <c r="F41">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>1.5538677490845401</v>
+      </c>
+      <c r="G41">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>5.0222795235218403</v>
+      </c>
+      <c r="H41" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>3.2321151696987807</v>
+      </c>
+      <c r="I41" s="16"/>
+      <c r="J41" s="11">
         <v>36081000</v>
       </c>
-      <c r="H41" s="11">
+      <c r="K41" s="11">
         <v>36081000</v>
       </c>
-      <c r="I41" s="11">
+      <c r="L41" s="11">
         <v>64175000</v>
       </c>
-      <c r="J41" s="11">
+      <c r="M41" s="11">
         <v>64514000</v>
       </c>
-      <c r="K41" s="11">
+      <c r="N41" s="11">
         <v>193290000</v>
       </c>
-      <c r="L41" s="11">
+      <c r="O41" s="11">
         <v>193290000</v>
       </c>
-      <c r="M41" s="11">
+      <c r="P41" s="11">
         <v>202660000</v>
       </c>
-      <c r="N41" s="11">
+      <c r="Q41" s="11">
         <v>106710000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -2842,37 +3428,48 @@
       <c r="D42">
         <v>703.32270335504302</v>
       </c>
-      <c r="E42" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>0.35056648028397763</v>
-      </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="10" t="s">
+      <c r="E42">
+        <v>2744.8976585021301</v>
+      </c>
+      <c r="F42">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>703.32270335504302</v>
+      </c>
+      <c r="G42">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>2744.8976585021301</v>
+      </c>
+      <c r="H42" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>3.9027570778082552</v>
+      </c>
+      <c r="I42" s="16"/>
+      <c r="J42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="L42" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="M42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="N42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="O42" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="P42" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="Q42" s="10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -2885,33 +3482,44 @@
       <c r="D43">
         <v>0.43238238926064998</v>
       </c>
-      <c r="E43" s="4">
-        <f>(Tabelle3[[#This Row],[totalBlack]]/Tabelle3[[#This Row],[AlmostWhite]])</f>
-        <v>2.8524040711862705E-2</v>
-      </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="11">
+      <c r="E43">
+        <v>0.56062613626484403</v>
+      </c>
+      <c r="F43">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.29559380636662902</v>
+      </c>
+      <c r="G43">
+        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <v>0.56062613626484403</v>
+      </c>
+      <c r="H43" s="4">
+        <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
+        <v>1.8966098889416234</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="11">
         <v>2.7715999999999998</v>
       </c>
-      <c r="H43" s="11">
+      <c r="K43" s="11">
         <v>2.7715999999999998</v>
       </c>
-      <c r="I43" s="11">
+      <c r="L43" s="11">
         <v>1.7411000000000001</v>
       </c>
-      <c r="J43" s="11">
+      <c r="M43" s="11">
         <v>1.55</v>
       </c>
-      <c r="K43" s="11">
+      <c r="N43" s="11">
         <v>1.2934000000000001</v>
       </c>
-      <c r="L43" s="11">
+      <c r="O43" s="11">
         <v>1.2934000000000001</v>
       </c>
-      <c r="M43" s="11">
+      <c r="P43" s="11">
         <v>0.87329999999999997</v>
       </c>
-      <c r="N43" s="11">
+      <c r="Q43" s="11">
         <v>0.83669000000000004</v>
       </c>
     </row>

--- a/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
+++ b/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
@@ -49,6 +49,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+Coarseness is a measure of average difference between the center voxel and its neighbourhood and is an indication of the spatial rate of change. A higher value indicates a lower spatial change rate and a locally more uniform texture.
+N.B. ∑Ngi=1pisi
+potentially evaluates to 0 (in case of a completely homogeneous image). If this is the case, an arbitrary value of 106 is returned.
 Macht so weit Sinn, da AlmostWhite ein sehr kleines ROI ist und sehr einheitlich
 total Black ist auch einheitlich aber viel größer
 americaner ist zur Hälfte uneinheitlich</t>
@@ -107,7 +110,32 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{C4BCED88-77C3-40F0-B9BC-4B0640E5EA89}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{F04E25F3-2865-465B-8279-E4D888E7FA45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+An image is considered complex when there are many primitive components in the image, i.e. the image is non-uniform and there are many rapid changes in gray level intensity.
+Verhält sich genauso wie janas dummies - anzeichen auf korrektheit?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{C4BCED88-77C3-40F0-B9BC-4B0640E5EA89}">
       <text>
         <r>
           <rPr>
@@ -132,7 +160,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{5F43E9CC-9A59-4AA3-B0CD-ECF6AB93CC44}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{CD389D0E-DB0D-4638-A33A-EF019B97C49F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Strenght is a measure of the primitives in an image. Its value is high when the primitives are easily defined and visible, i.e. an image with slow change in intensity but more large coarse differences in gray level intensities.
+N.B. ∑Ngi=1si
+potentially evaluates to 0 (in case of a completely homogeneous image). If this is the case, 0 is returned.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{5F43E9CC-9A59-4AA3-B0CD-ECF6AB93CC44}">
       <text>
         <r>
           <rPr>
@@ -164,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="141">
   <si>
     <t>(2) Histogram - Variance</t>
   </si>
@@ -584,6 +638,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">americaner - nur Grenzbereich </t>
   </si>
 </sst>
 </file>
@@ -672,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -698,11 +755,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -728,10 +780,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -739,6 +787,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -748,22 +797,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -806,6 +845,15 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -841,32 +889,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:Q43" totalsRowShown="0" headerRowDxfId="14">
-  <autoFilter ref="A1:Q43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:R43" totalsRowShown="0" headerRowDxfId="14">
+  <autoFilter ref="A1:R43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{F1ED0188-0EC4-4445-B56B-B9849FE1BE22}" name="Nr Radiomics" dataDxfId="13"/>
     <tableColumn id="14" xr3:uid="{D8415890-1219-4007-8BA7-AF1BFCE40801}" name="AlmostWhite" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{54631EBD-F548-41F6-B0A0-DE5D5B6F1F6C}" name="totalBlack"/>
     <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="americaner"/>
     <tableColumn id="15" xr3:uid="{A1817684-A399-4342-AB8E-4A6759AFA77B}" name="Noise"/>
-    <tableColumn id="16" xr3:uid="{A8ECAF1C-C031-47B7-80EA-8E817060E5A9}" name="min" dataDxfId="1">
-      <calculatedColumnFormula>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</calculatedColumnFormula>
+    <tableColumn id="18" xr3:uid="{783709CA-C439-4477-B52A-0B9D3122DC23}" name="americaner - nur Grenzbereich "/>
+    <tableColumn id="16" xr3:uid="{A8ECAF1C-C031-47B7-80EA-8E817060E5A9}" name="min" dataDxfId="11">
+      <calculatedColumnFormula>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{11746B08-19E1-426E-A083-CBE0105D2A9C}" name="max" dataDxfId="0">
-      <calculatedColumnFormula>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</calculatedColumnFormula>
+    <tableColumn id="17" xr3:uid="{11746B08-19E1-426E-A083-CBE0105D2A9C}" name="max" dataDxfId="10">
+      <calculatedColumnFormula>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="2" dataCellStyle="Prozent">
+    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="9" dataCellStyle="Prozent">
       <calculatedColumnFormula>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="11" dataCellStyle="Prozent"/>
-    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="10" dataCellStyle="Prozent"/>
-    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="9" dataCellStyle="Prozent"/>
-    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="8" dataCellStyle="Prozent"/>
-    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="7" dataCellStyle="Prozent"/>
-    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="6" dataCellStyle="Prozent"/>
-    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="5" dataCellStyle="Prozent"/>
-    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="4" dataCellStyle="Prozent"/>
-    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="3" dataCellStyle="Prozent"/>
+    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="8" dataCellStyle="Prozent"/>
+    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="7" dataCellStyle="Prozent"/>
+    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="6" dataCellStyle="Prozent"/>
+    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="5" dataCellStyle="Prozent"/>
+    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="4" dataCellStyle="Prozent"/>
+    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="3" dataCellStyle="Prozent"/>
+    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="2" dataCellStyle="Prozent"/>
+    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="1" dataCellStyle="Prozent"/>
+    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="0" dataCellStyle="Prozent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1169,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE9F08D-8687-4A4B-9A20-EFAFFA74EC70}">
-  <dimension ref="A1:AB375"/>
+  <dimension ref="A1:AC375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G3" sqref="G3"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1232,7 @@
     <col min="3" max="3" width="15.21875" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" customWidth="1"/>
     <col min="5" max="5" width="33.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
@@ -1191,10 +1240,12 @@
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="22.77734375" customWidth="1"/>
     <col min="13" max="13" width="19.5546875" customWidth="1"/>
+    <col min="14" max="14" width="25.109375" customWidth="1"/>
     <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
@@ -1211,313 +1262,331 @@
         <v>137</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="9">
         <v>145.060814031495</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="10">
         <v>134.37891734265</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="10">
         <v>573.17428695477997</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>151.34571556190701</v>
       </c>
-      <c r="F2" s="6">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F2" s="10">
+        <v>461.10092746934998</v>
+      </c>
+      <c r="G2" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>134.37891734265</v>
       </c>
-      <c r="G2" s="6">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H2" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>573.17428695477997</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>4.265358720618762</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="9">
+      <c r="J2" s="18"/>
+      <c r="K2" s="20">
         <v>992.25</v>
       </c>
-      <c r="K2" s="9">
+      <c r="L2" s="20">
         <v>992.25</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="20">
         <v>991.03449999999998</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="20">
         <v>992.25</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="20">
         <v>952.56</v>
       </c>
-      <c r="O2" s="9">
+      <c r="P2" s="20">
         <v>952.56</v>
       </c>
-      <c r="P2" s="9">
+      <c r="Q2" s="20">
         <v>971.38789999999995</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="R2" s="20">
         <v>990.66240000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="9">
         <v>0.10474541164934099</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>1.3886850116087099</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>3.82728361585737E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>-1.9011405389800999</v>
       </c>
-      <c r="F3">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F3" s="10">
+        <v>0.75088906237842301</v>
+      </c>
+      <c r="G3" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>-1.9011405389800999</v>
       </c>
-      <c r="G3">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H3" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1.3886850116087099</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>-0.73044837198290158</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="10">
+      <c r="J3" s="18"/>
+      <c r="K3" s="19">
         <v>0</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="19">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="M3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="19">
         <v>0</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="Q3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="R3" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>-0.15042926862301401</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>2.2337204016183398</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>-1.86556239612957</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>2.9296052274754998</v>
       </c>
-      <c r="F4">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F4" s="10">
+        <v>-1.16200443369554</v>
+      </c>
+      <c r="G4" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>-1.86556239612957</v>
       </c>
-      <c r="G4">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H4" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>2.9296052274754998</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>-1.5703603554367678</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="10">
+      <c r="J4" s="18"/>
+      <c r="K4" s="19">
         <v>-2</v>
       </c>
-      <c r="K4" s="10">
+      <c r="L4" s="19">
         <v>-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="M4" s="20">
         <v>-19951</v>
       </c>
-      <c r="M4" s="10">
+      <c r="N4" s="19">
         <v>-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="20">
         <v>-18333</v>
       </c>
-      <c r="O4" s="9">
+      <c r="P4" s="20">
         <v>-18333</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="20">
         <v>-19141</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="R4" s="20">
         <v>-19936</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>1.3225614467928201E-3</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>2.4892149386122001E-3</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>2.86100569135583E-2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>1.1206275227241E-3</v>
       </c>
-      <c r="F5" s="13">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F5" s="10">
+        <v>3.3697569279721701E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.1206275227241E-3</v>
       </c>
-      <c r="G5" s="13">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>2.86100569135583E-2</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>3.3697569279721701E-2</v>
+      </c>
+      <c r="I5" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>25.530389298320074</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="10" t="s">
+        <v>30.070267413928299</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="O5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="Q5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>78.823958360438297</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>14.252357255349599</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>14.2653654660991</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>64.8367268552403</v>
       </c>
-      <c r="F6" s="18">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>14.252357255349599</v>
-      </c>
-      <c r="G6" s="18">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>64.8367268552403</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="15">
+        <v>11.822671256119699</v>
+      </c>
+      <c r="G6" s="15">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>11.822671256119699</v>
+      </c>
+      <c r="H6" s="15">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>78.823958360438297</v>
+      </c>
+      <c r="I6" s="16">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>4.5491932101901202</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="10" t="s">
+        <v>6.6671868525175411</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="O6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="Q6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="R6" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1534,44 +1603,47 @@
         <v>0.84155620308673496</v>
       </c>
       <c r="F7">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.96220019540625401</v>
+      </c>
+      <c r="G7">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.84155620308673496</v>
       </c>
-      <c r="G7">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H7">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.96462525037383695</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.1462398433232366</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="9">
+      <c r="J7" s="13"/>
+      <c r="K7" s="6">
         <v>15620</v>
       </c>
-      <c r="K7" s="9">
+      <c r="L7" s="6">
         <v>15620</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="6">
         <v>17030</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="6">
         <v>17774</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="6">
         <v>18161</v>
       </c>
-      <c r="O7" s="9">
+      <c r="P7" s="6">
         <v>18161</v>
       </c>
-      <c r="P7" s="9">
+      <c r="Q7" s="6">
         <v>19324</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="R7" s="6">
         <v>19741</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1588,44 +1660,47 @@
         <v>0.28898515037825401</v>
       </c>
       <c r="F8">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>0.52931555651385298</v>
+      </c>
+      <c r="G8">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.28898515037825401</v>
       </c>
-      <c r="G8">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H8">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.54979124664533396</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.9024896120984405</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="10" t="s">
+      <c r="Q8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="10" t="s">
+      <c r="R8" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1642,44 +1717,47 @@
         <v>6.9126873644987999E-3</v>
       </c>
       <c r="F9">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>4.1155629107421602E-3</v>
+        <v>3.4433833318249399E-3</v>
       </c>
       <c r="G9">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>3.4433833318249399E-3</v>
+      </c>
+      <c r="H9">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>6.9126873644987999E-3</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.679645655872682</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="10" t="s">
+        <v>2.0075276837781471</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="P9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="Q9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="10" t="s">
+      <c r="R9" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1696,44 +1774,47 @@
         <v>10.2697560320119</v>
       </c>
       <c r="F10">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>7.8094061147113001</v>
+        <v>7.3705809394614903</v>
       </c>
       <c r="G10">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>7.3705809394614903</v>
+      </c>
+      <c r="H10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>10.2697560320119</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.3150495544937548</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="11">
+        <v>1.393344176851578</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="8">
         <v>3.6621000000000001</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="8">
         <v>3.6621000000000001</v>
       </c>
-      <c r="L10" s="11">
+      <c r="M10" s="8">
         <v>3.6215000000000002</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="8">
         <v>3.6621000000000001</v>
       </c>
-      <c r="N10" s="11">
+      <c r="O10" s="8">
         <v>3.4134000000000002</v>
       </c>
-      <c r="O10" s="11">
+      <c r="P10" s="8">
         <v>3.4134000000000002</v>
       </c>
-      <c r="P10" s="11">
+      <c r="Q10" s="8">
         <v>3.4821</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="R10" s="8">
         <v>3.7128000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1750,44 +1831,47 @@
         <v>4.9956491397040198E-2</v>
       </c>
       <c r="F11">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>3.81879954488532E-2</v>
+      </c>
+      <c r="G11">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>3.0626406749298101E-2</v>
       </c>
-      <c r="G11">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H11">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>4.9956491397040198E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.6311574454677125</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="11">
+      <c r="J11" s="13"/>
+      <c r="K11" s="8">
         <v>0.61034999999999995</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="8">
         <v>0.61034999999999995</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="8">
         <v>0.60968</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="8">
         <v>0.61034999999999995</v>
       </c>
-      <c r="N11" s="11">
+      <c r="O11" s="8">
         <v>0.58501000000000003</v>
       </c>
-      <c r="O11" s="11">
+      <c r="P11" s="8">
         <v>0.58501000000000003</v>
       </c>
-      <c r="P11" s="11">
+      <c r="Q11" s="8">
         <v>0.59708000000000006</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="R11" s="8">
         <v>0.60929999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1804,320 +1888,338 @@
         <v>5.8802350985768701</v>
       </c>
       <c r="F12">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.35026560157762</v>
+      </c>
+      <c r="G12">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.3001205094108998</v>
       </c>
-      <c r="G12">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>5.8802350985768701</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="H12">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>6.9179624620978899</v>
+      </c>
+      <c r="I12" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>2.5564900075965578</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="10" t="s">
+        <v>3.0076521790024375</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="M12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="N12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="O12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="10" t="s">
+      <c r="P12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="Q12" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="R12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>0.96643361900466096</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>0.89477249730697195</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>0.84943858382700799</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>0.94328061645038597</v>
       </c>
-      <c r="F13" s="13">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>0.84943858382700799</v>
-      </c>
-      <c r="G13" s="13">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>0.94328061645038597</v>
-      </c>
-      <c r="H13" s="14">
+      <c r="F13" s="10">
+        <v>0.83370658184780999</v>
+      </c>
+      <c r="G13" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.83370658184780999</v>
+      </c>
+      <c r="H13" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.96643361900466096</v>
+      </c>
+      <c r="I13" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.1104753591490839</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24" t="s">
+        <v>1.1592011386820018</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="L13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="M13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="N13" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="O13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="P13" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="24" t="s">
+      <c r="Q13" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="R13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="AC13" s="9"/>
+    </row>
+    <row r="14" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>1.1447902571041999</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>1.64738431048262</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>6.2671254789951503</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>1.33779163135782</v>
       </c>
-      <c r="F14" s="13">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F14" s="10">
+        <v>4.6737411391379302</v>
+      </c>
+      <c r="G14" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.33779163135782</v>
       </c>
-      <c r="G14" s="13">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H14" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>6.2671254789951503</v>
       </c>
-      <c r="H14" s="14">
+      <c r="I14" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>4.68467983510571</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="25">
+      <c r="J14" s="18"/>
+      <c r="K14" s="20">
         <v>804847</v>
       </c>
-      <c r="K14" s="25">
+      <c r="L14" s="20">
         <v>804847</v>
       </c>
-      <c r="L14" s="25">
+      <c r="M14" s="20">
         <v>472115</v>
       </c>
-      <c r="M14" s="25">
+      <c r="N14" s="20">
         <v>329121</v>
       </c>
-      <c r="N14" s="25">
+      <c r="O14" s="20">
         <v>397624</v>
       </c>
-      <c r="O14" s="25">
+      <c r="P14" s="20">
         <v>397624</v>
       </c>
-      <c r="P14" s="25">
+      <c r="Q14" s="20">
         <v>235524</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="R14" s="20">
         <v>168160</v>
       </c>
-      <c r="AB14" s="12"/>
-    </row>
-    <row r="15" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+      <c r="AC14" s="9"/>
+    </row>
+    <row r="15" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="22">
         <v>2.9859797554021902E-2</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="23">
         <v>2.57469882473336E-2</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="23">
         <v>2.5830479995548501E-2</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="23">
         <v>2.0490666090028101E-2</v>
       </c>
-      <c r="F15" s="27">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F15" s="23">
+        <v>3.6686848538184602E-2</v>
+      </c>
+      <c r="G15" s="23">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.0490666090028101E-2</v>
       </c>
-      <c r="G15" s="27">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>2.5830479995548501E-2</v>
-      </c>
-      <c r="H15" s="28">
+      <c r="H15" s="23">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>3.6686848538184602E-2</v>
+      </c>
+      <c r="I15" s="24">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.2605973803906283</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30" t="s">
+        <v>1.7904175675401037</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="30" t="s">
+      <c r="M15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="M15" s="30" t="s">
+      <c r="N15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="O15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="O15" s="30" t="s">
+      <c r="P15" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="Q15" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="R15" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AB15" s="26"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="AC15" s="22"/>
+    </row>
+    <row r="16" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="22">
         <v>0.91509596774341295</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="23">
         <v>0.76082417943955105</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="23">
         <v>0.68551103815709802</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="23">
         <v>0.86314848873531702</v>
       </c>
-      <c r="F16" s="6">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>0.68551103815709802</v>
-      </c>
-      <c r="G16" s="6">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>0.86314848873531702</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="F16" s="23">
+        <v>0.656301420700384</v>
+      </c>
+      <c r="G16" s="23">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.656301420700384</v>
+      </c>
+      <c r="H16" s="23">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.91509596774341295</v>
+      </c>
+      <c r="I16" s="24">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.2591314226766834</v>
-      </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22" t="s">
+        <v>1.3943226981999393</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="L16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="M16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="22" t="s">
+      <c r="N16" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="O16" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="P16" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="22" t="s">
+      <c r="Q16" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="Q16" s="22" t="s">
+      <c r="R16" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="AB16" s="5"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="AC16" s="22"/>
+    </row>
+    <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="22">
         <v>0.95539754363283802</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="23">
         <v>0.85124547882877699</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="23">
         <v>0.64771657471204003</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="23">
         <v>0.91542258869480297</v>
       </c>
-      <c r="F17">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F17" s="23">
+        <v>0.67618591666282102</v>
+      </c>
+      <c r="G17" s="23">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.64771657471204003</v>
       </c>
-      <c r="G17">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>0.91542258869480297</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="H17" s="23">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.95539754363283802</v>
+      </c>
+      <c r="I17" s="24">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.4133073390962381</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="10" t="s">
+        <v>1.4750240783286825</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="L17" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="M17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="N17" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="10" t="s">
+      <c r="O17" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="O17" s="10" t="s">
+      <c r="P17" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="10" t="s">
+      <c r="Q17" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="R17" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC17" s="22"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2134,45 +2236,48 @@
         <v>1.8631858204439401E-2</v>
       </c>
       <c r="F18">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>4.2559920106692302E-2</v>
+      </c>
+      <c r="G18">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.8631858204439401E-2</v>
       </c>
-      <c r="G18">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>3.2887752814288802E-2</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="H18">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>4.2559920106692302E-2</v>
+      </c>
+      <c r="I18" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.765135417703676</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="10" t="s">
+        <v>2.2842552599800046</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="L18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="M18" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="N18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="Q18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="10" t="s">
+      <c r="R18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2189,45 +2294,48 @@
         <v>1024.6835388654199</v>
       </c>
       <c r="F19">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>554.91359724294705</v>
+        <v>480.61430192187902</v>
       </c>
       <c r="G19">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>480.61430192187902</v>
+      </c>
+      <c r="H19">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1024.6835388654199</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.846564120894667</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="9">
+        <v>2.1320288113939148</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="6">
         <v>25000</v>
       </c>
-      <c r="K19" s="9">
+      <c r="L19" s="6">
         <v>25000</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="6">
         <v>24783</v>
       </c>
-      <c r="M19" s="9">
+      <c r="N19" s="6">
         <v>25000</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="6">
         <v>24659</v>
       </c>
-      <c r="O19" s="9">
+      <c r="P19" s="6">
         <v>24659</v>
       </c>
-      <c r="P19" s="9">
+      <c r="Q19" s="6">
         <v>24806</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="R19" s="6">
         <v>25024</v>
       </c>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2244,44 +2352,47 @@
         <v>1259.20688715192</v>
       </c>
       <c r="F20">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>872.27338274901501</v>
+        <v>823.73035682296995</v>
       </c>
       <c r="G20">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>823.73035682296995</v>
+      </c>
+      <c r="H20">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1259.20688715192</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.4435920114671663</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="10" t="s">
+        <v>1.5286639331935408</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="L20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="N20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="O20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="R20" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2298,44 +2409,47 @@
         <v>2.8874205465106901E-2</v>
       </c>
       <c r="F21">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>3.87163702220355E-3</v>
+      </c>
+      <c r="G21">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.6032083077960999E-3</v>
       </c>
-      <c r="G21">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>2.8874205465106901E-2</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="H21">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>5.9370961452590902E-2</v>
+      </c>
+      <c r="I21" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>11.091776781225805</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="10" t="s">
+        <v>22.806842339426499</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="L21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="N21" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="O21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="P21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="9">
+      <c r="Q21" s="6">
         <v>13874</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="R21" s="6">
         <v>12052</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,45 +2465,48 @@
       <c r="E22" s="2">
         <v>2.5806423486746799E-5</v>
       </c>
-      <c r="F22" s="31">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F22" s="2">
+        <v>1.6463736205269099E-5</v>
+      </c>
+      <c r="G22" s="21">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>4.83412894108827E-6</v>
       </c>
-      <c r="G22" s="31">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>2.5806423486746799E-5</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="H22" s="21">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>1.13388165961205E-4</v>
+      </c>
+      <c r="I22" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>5.3383812887988871</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="9">
+        <v>23.455759526281646</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="6">
         <v>503030</v>
       </c>
-      <c r="K22" s="9">
+      <c r="L22" s="6">
         <v>503030</v>
       </c>
-      <c r="L22" s="9">
+      <c r="M22" s="6">
         <v>301993</v>
       </c>
-      <c r="M22" s="9">
+      <c r="N22" s="6">
         <v>205701</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="6">
         <v>282236</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="6">
         <v>282236</v>
       </c>
-      <c r="P22" s="9">
+      <c r="Q22" s="6">
         <v>161942</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="R22" s="6">
         <v>88606</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2406,44 +2523,47 @@
         <v>0.67108160075977596</v>
       </c>
       <c r="F23">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>0.52585659280836905</v>
+        <v>0.42818144248497703</v>
       </c>
       <c r="G23">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.42818144248497703</v>
+      </c>
+      <c r="H23">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.67108160075977596</v>
       </c>
-      <c r="H23" s="4">
+      <c r="I23" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.2761684648200833</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="9">
+        <v>1.5672832453109438</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="6">
         <v>2012118</v>
       </c>
-      <c r="K23" s="9">
+      <c r="L23" s="6">
         <v>2012118</v>
       </c>
-      <c r="L23" s="9">
+      <c r="M23" s="6">
         <v>1152604</v>
       </c>
-      <c r="M23" s="9">
+      <c r="N23" s="6">
         <v>822803</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="6">
         <v>859176</v>
       </c>
-      <c r="O23" s="9">
+      <c r="P23" s="6">
         <v>859176</v>
       </c>
-      <c r="P23" s="9">
+      <c r="Q23" s="6">
         <v>529855</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="R23" s="6">
         <v>486377</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2460,44 +2580,47 @@
         <v>155.64084385267199</v>
       </c>
       <c r="F24">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>11413.4091370558</v>
+      </c>
+      <c r="G24">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>155.64084385267199</v>
       </c>
-      <c r="G24">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H24">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>24381.35111023</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>156.65136802592212</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="11">
+      <c r="J24" s="13"/>
+      <c r="K24" s="8">
         <v>2.5769000000000002</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="8">
         <v>2.5769000000000002</v>
       </c>
-      <c r="L24" s="11">
+      <c r="M24" s="8">
         <v>1.0172000000000001</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="8">
         <v>1.0495000000000001</v>
       </c>
-      <c r="N24" s="11">
+      <c r="O24" s="8">
         <v>3.8094999999999999</v>
       </c>
-      <c r="O24" s="11">
+      <c r="P24" s="8">
         <v>3.8094999999999999</v>
       </c>
-      <c r="P24" s="11">
+      <c r="Q24" s="8">
         <v>1.897</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="R24" s="8">
         <v>1.5328999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2514,44 +2637,47 @@
         <v>2.6213786651107501E-2</v>
       </c>
       <c r="F25">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>3.9703161637764398E-2</v>
+      </c>
+      <c r="G25">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.6213786651107501E-2</v>
       </c>
-      <c r="G25">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>3.8142694801213198E-2</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="H25">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>3.9703161637764398E-2</v>
+      </c>
+      <c r="I25" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.4550623802990978</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="10" t="s">
+        <v>1.5145908588558299</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="11">
+      <c r="M25" s="8">
         <v>5.8940999999999999</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="8">
         <v>7.1146000000000003</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="O25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O25" s="10" t="s">
+      <c r="P25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="11">
+      <c r="Q25" s="8">
         <v>2.6766000000000001</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="R25" s="8">
         <v>2.3365</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2568,44 +2694,47 @@
         <v>1.4391636711885401E-2</v>
       </c>
       <c r="F26">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.2372626949927601E-2</v>
+      </c>
+      <c r="G26">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.3306090676521E-2</v>
       </c>
-      <c r="G26">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>1.4391636711885401E-2</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="H26">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>2.59739282791712E-2</v>
+      </c>
+      <c r="I26" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.0815826422466728</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="11">
+        <v>1.9520330133480139</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="8">
         <v>1.5625E-4</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="8">
         <v>1.5625E-4</v>
       </c>
-      <c r="L26" s="11">
+      <c r="M26" s="8">
         <v>6.6683999999999997E-3</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="8">
         <v>9.7656000000000001E-6</v>
       </c>
-      <c r="N26" s="11">
+      <c r="O26" s="8">
         <v>7.0529999999999996E-4</v>
       </c>
-      <c r="O26" s="11">
+      <c r="P26" s="8">
         <v>7.0529999999999996E-4</v>
       </c>
-      <c r="P26" s="11">
+      <c r="Q26" s="8">
         <v>0.21054999999999999</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="R26" s="8">
         <v>9.8125999999999999E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2622,98 +2751,104 @@
         <v>975.94492030429501</v>
       </c>
       <c r="F27">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>502.474239462855</v>
+        <v>441.79717939396198</v>
       </c>
       <c r="G27">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>441.79717939396198</v>
+      </c>
+      <c r="H27">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>975.94492030429501</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.9422785163028062</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="10">
+        <v>2.2090338413727619</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="7">
         <v>64000000</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="7">
         <v>64000000</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="7">
         <v>21393600</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="8">
         <v>10240000000000</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="7">
         <v>16640000</v>
       </c>
-      <c r="O27" s="10">
+      <c r="P27" s="7">
         <v>16640000</v>
       </c>
-      <c r="P27" s="10">
+      <c r="Q27" s="7">
         <v>5491600</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="R27" s="8">
         <v>10256000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="9">
         <v>3.1952232204419603E-2</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="10">
         <v>7.99646099859328E-2</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>0.96609788957646203</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="10">
         <v>5.8617928303400103E-2</v>
       </c>
-      <c r="F28" s="13">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F28" s="10">
+        <v>0.60370731979291903</v>
+      </c>
+      <c r="G28" s="10">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>5.8617928303400103E-2</v>
       </c>
-      <c r="G28" s="13">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H28" s="10">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.96609788957646203</v>
       </c>
-      <c r="H28" s="14">
+      <c r="I28" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>16.481269767434345</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="L28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="N28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="10" t="s">
+      <c r="O28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="Q28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="10" t="s">
+      <c r="R28" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2730,44 +2865,47 @@
         <v>0.41709435094347902</v>
       </c>
       <c r="F29">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>0.262418942278828</v>
+        <v>0.18217939137828801</v>
       </c>
       <c r="G29">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.18217939137828801</v>
+      </c>
+      <c r="H29">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.41709435094347902</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.5894216603476121</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="10">
+        <v>2.289470547617539</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="7">
         <v>1</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L29" s="7">
         <v>1</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="M29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="7">
         <v>1</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="O29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="P29" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="Q29" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Q29" s="10" t="s">
+      <c r="R29" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2784,44 +2922,47 @@
         <v>0.40782792665726397</v>
       </c>
       <c r="F30">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>0.122970403237603</v>
+        <v>7.3860227954409094E-2</v>
       </c>
       <c r="G30">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>0.40782792665726397</v>
-      </c>
-      <c r="H30" s="4">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>7.3860227954409094E-2</v>
+      </c>
+      <c r="H30">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.54621848739495804</v>
+      </c>
+      <c r="I30" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>3.3164722235582187</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="11">
+        <v>7.395299236445851</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="8">
         <v>1.25</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="8">
         <v>1.25</v>
       </c>
-      <c r="L30" s="11">
+      <c r="M30" s="8">
         <v>2.5</v>
       </c>
-      <c r="M30" s="11">
+      <c r="N30" s="8">
         <v>0.3125</v>
       </c>
-      <c r="N30" s="11">
+      <c r="O30" s="8">
         <v>2.5</v>
       </c>
-      <c r="O30" s="11">
+      <c r="P30" s="8">
         <v>2.5</v>
       </c>
-      <c r="P30" s="11">
+      <c r="Q30" s="8">
         <v>5</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="R30" s="8">
         <v>0.3125</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2838,44 +2979,47 @@
         <v>1.6150433084840901E-3</v>
       </c>
       <c r="F31">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>6.8779942415069604E-3</v>
+      </c>
+      <c r="G31">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.6150433084840901E-3</v>
       </c>
-      <c r="G31">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>4.4574875909837103E-3</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="H31">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>1.9868445195190002E-2</v>
+      </c>
+      <c r="I31" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>2.7599802231728336</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="10" t="s">
+        <v>12.302112946951805</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="L31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="M31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="N31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="O31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O31" s="10" t="s">
+      <c r="P31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="Q31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="Q31" s="10" t="s">
+      <c r="R31" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2892,44 +3036,47 @@
         <v>1149.3478298461</v>
       </c>
       <c r="F32">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>902.56751269035499</v>
+      </c>
+      <c r="G32">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>663.12665929203501</v>
       </c>
-      <c r="G32">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H32">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1149.3478298461</v>
       </c>
-      <c r="H32" s="4">
+      <c r="I32" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.7332251896992994</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="9">
+      <c r="J32" s="13"/>
+      <c r="K32" s="6">
         <v>25000</v>
       </c>
-      <c r="K32" s="9">
+      <c r="L32" s="6">
         <v>25000</v>
       </c>
-      <c r="L32" s="9">
+      <c r="M32" s="6">
         <v>25000</v>
       </c>
-      <c r="M32" s="9">
+      <c r="N32" s="6">
         <v>25000</v>
       </c>
-      <c r="N32" s="9">
+      <c r="O32" s="6">
         <v>25000</v>
       </c>
-      <c r="O32" s="9">
+      <c r="P32" s="6">
         <v>25000</v>
       </c>
-      <c r="P32" s="9">
+      <c r="Q32" s="6">
         <v>25000</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="R32" s="6">
         <v>25000</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2946,44 +3093,47 @@
         <v>9.3033943128352297E-4</v>
       </c>
       <c r="F33">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2.20981941102554E-3</v>
+      </c>
+      <c r="G33">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>8.0272094235240296E-4</v>
       </c>
-      <c r="G33">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>1.80159019722937E-3</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="H33">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>8.9918651871754608E-3</v>
+      </c>
+      <c r="I33" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>2.2443542982069764</v>
-      </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="11">
+        <v>11.201732398838969</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="8">
         <v>9.7656000000000001E-5</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="8">
         <v>9.7656000000000001E-5</v>
       </c>
-      <c r="L33" s="11">
+      <c r="M33" s="8">
         <v>3.3475000000000002E-3</v>
       </c>
-      <c r="M33" s="11">
+      <c r="N33" s="8">
         <v>6.1035000000000001E-6</v>
       </c>
-      <c r="N33" s="11">
+      <c r="O33" s="8">
         <v>3.3908000000000001E-4</v>
       </c>
-      <c r="O33" s="11">
+      <c r="P33" s="8">
         <v>3.3908000000000001E-4</v>
       </c>
-      <c r="P33" s="11">
+      <c r="Q33" s="8">
         <v>5.9679000000000003E-2</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="R33" s="8">
         <v>6.4268E-6</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -3000,44 +3150,47 @@
         <v>776.28842844242695</v>
       </c>
       <c r="F34">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>418.900485793511</v>
+      </c>
+      <c r="G34">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>356.36274881581397</v>
       </c>
-      <c r="G34">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H34">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>776.28842844242695</v>
       </c>
-      <c r="H34" s="4">
+      <c r="I34" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>2.1783658113032782</v>
       </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="11">
+      <c r="J34" s="13"/>
+      <c r="K34" s="8">
         <v>3.9062E-4</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="8">
         <v>3.9062E-4</v>
       </c>
-      <c r="L34" s="11">
+      <c r="M34" s="8">
         <v>1.9952000000000001E-2</v>
       </c>
-      <c r="M34" s="11">
+      <c r="N34" s="8">
         <v>2.4414E-5</v>
       </c>
-      <c r="N34" s="11">
+      <c r="O34" s="8">
         <v>2.1700999999999999E-3</v>
       </c>
-      <c r="O34" s="11">
+      <c r="P34" s="8">
         <v>2.1700999999999999E-3</v>
       </c>
-      <c r="P34" s="11">
+      <c r="Q34" s="8">
         <v>0.81405000000000005</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="R34" s="8">
         <v>2.3356000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -3054,44 +3207,47 @@
         <v>25.302233788752801</v>
       </c>
       <c r="F35">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>2107.9036222174</v>
+      </c>
+      <c r="G35">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>25.302233788752801</v>
       </c>
-      <c r="G35">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H35">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>3631.3438330672602</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>143.51870524101489</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="10">
+      <c r="J35" s="13"/>
+      <c r="K35" s="7">
         <v>40000000</v>
       </c>
-      <c r="K35" s="10">
+      <c r="L35" s="7">
         <v>40000000</v>
       </c>
-      <c r="L35" s="10">
+      <c r="M35" s="7">
         <v>13774800</v>
       </c>
-      <c r="M35" s="10">
+      <c r="N35" s="7">
         <v>640000000</v>
       </c>
-      <c r="N35" s="10">
+      <c r="O35" s="7">
         <v>12800000</v>
       </c>
-      <c r="O35" s="10">
+      <c r="P35" s="7">
         <v>12800000</v>
       </c>
-      <c r="P35" s="10">
+      <c r="Q35" s="7">
         <v>4028500</v>
       </c>
-      <c r="Q35" s="10">
+      <c r="R35" s="7">
         <v>610304000</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -3108,44 +3264,47 @@
         <v>24463.860625972698</v>
       </c>
       <c r="F36">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>250348.97664974601</v>
+      </c>
+      <c r="G36">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>24463.860625972698</v>
       </c>
-      <c r="G36">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+      <c r="H36">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>628652.93408923305</v>
       </c>
-      <c r="H36" s="4">
+      <c r="I36" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>25.697208780768118</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="10">
+      <c r="J36" s="13"/>
+      <c r="K36" s="7">
         <v>160000000</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="7">
         <v>160000000</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="7">
         <v>51868800</v>
       </c>
-      <c r="M36" s="11">
+      <c r="N36" s="8">
         <v>25600000000000</v>
       </c>
-      <c r="N36" s="10">
+      <c r="O36" s="7">
         <v>32000000</v>
       </c>
-      <c r="O36" s="10">
+      <c r="P36" s="7">
         <v>32000000</v>
       </c>
-      <c r="P36" s="10">
+      <c r="Q36" s="7">
         <v>11344000</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="R36" s="8">
         <v>26870000000000</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
@@ -3161,49 +3320,52 @@
       <c r="E37" s="2">
         <v>4.2714045033201599E-4</v>
       </c>
-      <c r="F37" s="31">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F37" s="2">
+        <v>6.7074435266909906E-5</v>
+      </c>
+      <c r="G37" s="21">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.7442027826775101E-5</v>
       </c>
-      <c r="G37" s="31">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>4.2714045033201599E-4</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="H37" s="21">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>1.3651043949521401E-2</v>
+      </c>
+      <c r="I37" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>24.489150835794248</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="11">
+        <v>782.65234324221205</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="8">
         <v>2.4414000000000002E-2</v>
       </c>
-      <c r="K37" s="11">
+      <c r="L37" s="8">
         <v>2.4414000000000002E-2</v>
       </c>
-      <c r="L37" s="11">
+      <c r="M37" s="8">
         <v>3.0980999999999999E-3</v>
       </c>
-      <c r="M37" s="11">
+      <c r="N37" s="8">
         <v>6.1035000000000004E-3</v>
       </c>
-      <c r="N37" s="11">
+      <c r="O37" s="8">
         <v>4.0689999999999997E-2</v>
       </c>
-      <c r="O37" s="11">
+      <c r="P37" s="8">
         <v>4.0689999999999997E-2</v>
       </c>
-      <c r="P37" s="11">
+      <c r="Q37" s="8">
         <v>3.0113000000000002E-3</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="R37" s="8">
         <v>5.8688000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="17">
         <v>5.3486575672071999E-5</v>
       </c>
       <c r="C38" s="2">
@@ -3215,45 +3377,48 @@
       <c r="E38" s="2">
         <v>9.6939104436278199E-7</v>
       </c>
-      <c r="F38" s="31">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+      <c r="F38" s="2">
+        <v>7.1401442710670901E-5</v>
+      </c>
+      <c r="G38" s="21">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>9.6939104436278199E-7</v>
       </c>
-      <c r="G38" s="31">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>2.9563755240274599E-6</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="H38" s="21">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>7.1401442710670901E-5</v>
+      </c>
+      <c r="I38" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>3.0497244029841428</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="9">
+        <v>73.655975187604312</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="6">
         <v>624998</v>
       </c>
-      <c r="K38" s="9">
+      <c r="L38" s="6">
         <v>624998</v>
       </c>
-      <c r="L38" s="9">
+      <c r="M38" s="6">
         <v>26512</v>
       </c>
-      <c r="M38" s="9">
+      <c r="N38" s="6">
         <v>2499998</v>
       </c>
-      <c r="N38" s="9">
+      <c r="O38" s="6">
         <v>270832</v>
       </c>
-      <c r="O38" s="9">
+      <c r="P38" s="6">
         <v>270832</v>
       </c>
-      <c r="P38" s="10" t="s">
+      <c r="Q38" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="Q38" s="9">
+      <c r="R38" s="6">
         <v>2407690</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
@@ -3270,44 +3435,47 @@
         <v>5.9927522779313703E-4</v>
       </c>
       <c r="F39">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>3.0448130683693401E-3</v>
+      </c>
+      <c r="G39">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>4.5192305856570699E-4</v>
       </c>
-      <c r="G39">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>5.9927522779313703E-4</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="H39">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>2.20312397970037E-2</v>
+      </c>
+      <c r="I39" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.3260558770669717</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="11">
+        <v>48.749979403408744</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="8">
         <v>2.7715999999999998</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L39" s="8">
         <v>2.7715999999999998</v>
       </c>
-      <c r="L39" s="11">
+      <c r="M39" s="8">
         <v>1.7411000000000001</v>
       </c>
-      <c r="M39" s="11">
+      <c r="N39" s="8">
         <v>1.55</v>
       </c>
-      <c r="N39" s="11">
+      <c r="O39" s="8">
         <v>1.2934000000000001</v>
       </c>
-      <c r="O39" s="11">
+      <c r="P39" s="8">
         <v>1.2934000000000001</v>
       </c>
-      <c r="P39" s="11">
+      <c r="Q39" s="8">
         <v>0.87336000000000003</v>
       </c>
-      <c r="Q39" s="11">
+      <c r="R39" s="8">
         <v>0.83669000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3324,44 +3492,47 @@
         <v>0.44107414328839201</v>
       </c>
       <c r="F40">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>0.15763360169356899</v>
+        <v>0.12388667051942399</v>
       </c>
       <c r="G40">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>0.44107414328839201</v>
-      </c>
-      <c r="H40" s="4">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.12388667051942399</v>
+      </c>
+      <c r="H40">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>0.46866723688539602</v>
+      </c>
+      <c r="I40" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>2.7980972238762631</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="10" t="s">
+        <v>3.7830319833473482</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="L40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="M40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="N40" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N40" s="10" t="s">
+      <c r="O40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O40" s="10" t="s">
+      <c r="P40" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P40" s="10" t="s">
+      <c r="Q40" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="Q40" s="10" t="s">
+      <c r="R40" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
@@ -3378,44 +3549,47 @@
         <v>1.5538677490845401</v>
       </c>
       <c r="F41">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>1.5538677490845401</v>
+        <v>1.0052798118250399</v>
       </c>
       <c r="G41">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>1.0052798118250399</v>
+      </c>
+      <c r="H41">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>5.0222795235218403</v>
       </c>
-      <c r="H41" s="4">
+      <c r="I41" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>3.2321151696987807</v>
-      </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="11">
+        <v>4.9959021005346953</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="8">
         <v>36081000</v>
       </c>
-      <c r="K41" s="11">
+      <c r="L41" s="8">
         <v>36081000</v>
       </c>
-      <c r="L41" s="11">
+      <c r="M41" s="8">
         <v>64175000</v>
       </c>
-      <c r="M41" s="11">
+      <c r="N41" s="8">
         <v>64514000</v>
       </c>
-      <c r="N41" s="11">
+      <c r="O41" s="8">
         <v>193290000</v>
       </c>
-      <c r="O41" s="11">
+      <c r="P41" s="8">
         <v>193290000</v>
       </c>
-      <c r="P41" s="11">
+      <c r="Q41" s="8">
         <v>202660000</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="R41" s="8">
         <v>106710000</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3432,44 +3606,47 @@
         <v>2744.8976585021301</v>
       </c>
       <c r="F42">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
-        <v>703.32270335504302</v>
+        <v>442.71765548760101</v>
       </c>
       <c r="G42">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
+        <v>442.71765548760101</v>
+      </c>
+      <c r="H42">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>2744.8976585021301</v>
       </c>
-      <c r="H42" s="4">
+      <c r="I42" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>3.9027570778082552</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="10" t="s">
+        <v>6.2001088605308743</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="L42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="M42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="N42" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="O42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O42" s="10" t="s">
+      <c r="P42" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P42" s="10" t="s">
+      <c r="Q42" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="Q42" s="10" t="s">
+      <c r="R42" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -3486,48 +3663,51 @@
         <v>0.56062613626484403</v>
       </c>
       <c r="F43">
-        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[Noise]])</f>
+        <v>3.5055138383518698</v>
+      </c>
+      <c r="G43">
+        <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.29559380636662902</v>
       </c>
-      <c r="G43">
-        <f>MAX(Tabelle3[[#This Row],[totalBlack]:[min]])</f>
-        <v>0.56062613626484403</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="H43">
+        <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
+        <v>10.3629709883178</v>
+      </c>
+      <c r="I43" s="4">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
-        <v>1.8966098889416234</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="11">
+        <v>35.058146568417833</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="8">
         <v>2.7715999999999998</v>
       </c>
-      <c r="K43" s="11">
+      <c r="L43" s="8">
         <v>2.7715999999999998</v>
       </c>
-      <c r="L43" s="11">
+      <c r="M43" s="8">
         <v>1.7411000000000001</v>
       </c>
-      <c r="M43" s="11">
+      <c r="N43" s="8">
         <v>1.55</v>
       </c>
-      <c r="N43" s="11">
+      <c r="O43" s="8">
         <v>1.2934000000000001</v>
       </c>
-      <c r="O43" s="11">
+      <c r="P43" s="8">
         <v>1.2934000000000001</v>
       </c>
-      <c r="P43" s="11">
+      <c r="Q43" s="8">
         <v>0.87329999999999997</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="R43" s="8">
         <v>0.83669000000000004</v>
       </c>
     </row>
     <row r="58" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L58" s="8"/>
+      <c r="L58" s="5"/>
     </row>
     <row r="63" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L63" s="8"/>
+      <c r="L63" s="5"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L66" s="2"/>
@@ -3536,16 +3716,16 @@
       <c r="L67" s="2"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L70" s="8"/>
+      <c r="L70" s="5"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L75" s="8"/>
+      <c r="L75" s="5"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L78" s="8"/>
+      <c r="L78" s="5"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L79" s="8"/>
+      <c r="L79" s="5"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L80" s="2"/>
@@ -3557,7 +3737,7 @@
       <c r="L86" s="2"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L88" s="8"/>
+      <c r="L88" s="5"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L89" s="2"/>
@@ -3569,7 +3749,7 @@
       <c r="L93" s="2"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L94" s="8"/>
+      <c r="L94" s="5"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L95" s="2"/>
@@ -3581,13 +3761,13 @@
       <c r="L99" s="2"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L104" s="8"/>
+      <c r="L104" s="5"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L106" s="8"/>
+      <c r="L106" s="5"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L109" s="8"/>
+      <c r="L109" s="5"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L112" s="2"/>
@@ -3596,16 +3776,16 @@
       <c r="L113" s="2"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116" s="8"/>
+      <c r="L116" s="5"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121" s="8"/>
+      <c r="L121" s="5"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L124" s="8"/>
+      <c r="L124" s="5"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L125" s="8"/>
+      <c r="L125" s="5"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L126" s="2"/>
@@ -3620,7 +3800,7 @@
       <c r="L132" s="2"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L134" s="8"/>
+      <c r="L134" s="5"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L135" s="2"/>
@@ -3632,7 +3812,7 @@
       <c r="L139" s="2"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L140" s="8"/>
+      <c r="L140" s="5"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L141" s="2"/>
@@ -3644,10 +3824,10 @@
       <c r="L145" s="2"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L150" s="8"/>
+      <c r="L150" s="5"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L155" s="8"/>
+      <c r="L155" s="5"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L158" s="2"/>
@@ -3656,16 +3836,16 @@
       <c r="L159" s="2"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L162" s="8"/>
+      <c r="L162" s="5"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L167" s="8"/>
+      <c r="L167" s="5"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L170" s="8"/>
+      <c r="L170" s="5"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L171" s="8"/>
+      <c r="L171" s="5"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L172" s="2"/>
@@ -3683,7 +3863,7 @@
       <c r="L178" s="2"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L180" s="8"/>
+      <c r="L180" s="5"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L181" s="2"/>
@@ -3698,7 +3878,7 @@
       <c r="L185" s="2"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L186" s="8"/>
+      <c r="L186" s="5"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L187" s="2"/>
@@ -3710,13 +3890,13 @@
       <c r="L191" s="2"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L196" s="8"/>
+      <c r="L196" s="5"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L198" s="8"/>
+      <c r="L198" s="5"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L201" s="8"/>
+      <c r="L201" s="5"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L204" s="2"/>
@@ -3725,16 +3905,16 @@
       <c r="L205" s="2"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L208" s="8"/>
+      <c r="L208" s="5"/>
     </row>
     <row r="213" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L213" s="8"/>
+      <c r="L213" s="5"/>
     </row>
     <row r="216" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L216" s="8"/>
+      <c r="L216" s="5"/>
     </row>
     <row r="217" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L217" s="8"/>
+      <c r="L217" s="5"/>
     </row>
     <row r="218" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L218" s="2"/>
@@ -3746,7 +3926,7 @@
       <c r="L224" s="2"/>
     </row>
     <row r="226" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L226" s="8"/>
+      <c r="L226" s="5"/>
     </row>
     <row r="227" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L227" s="2"/>
@@ -3758,7 +3938,7 @@
       <c r="L231" s="2"/>
     </row>
     <row r="232" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L232" s="8"/>
+      <c r="L232" s="5"/>
     </row>
     <row r="233" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L233" s="2"/>
@@ -3770,13 +3950,13 @@
       <c r="L237" s="2"/>
     </row>
     <row r="242" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L242" s="8"/>
+      <c r="L242" s="5"/>
     </row>
     <row r="244" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L244" s="8"/>
+      <c r="L244" s="5"/>
     </row>
     <row r="247" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L247" s="8"/>
+      <c r="L247" s="5"/>
     </row>
     <row r="250" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L250" s="2"/>
@@ -3785,16 +3965,16 @@
       <c r="L251" s="2"/>
     </row>
     <row r="254" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L254" s="8"/>
+      <c r="L254" s="5"/>
     </row>
     <row r="259" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L259" s="8"/>
+      <c r="L259" s="5"/>
     </row>
     <row r="262" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L262" s="8"/>
+      <c r="L262" s="5"/>
     </row>
     <row r="263" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L263" s="8"/>
+      <c r="L263" s="5"/>
     </row>
     <row r="264" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L264" s="2"/>
@@ -3806,7 +3986,7 @@
       <c r="L270" s="2"/>
     </row>
     <row r="272" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L272" s="8"/>
+      <c r="L272" s="5"/>
     </row>
     <row r="273" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L273" s="2"/>
@@ -3818,7 +3998,7 @@
       <c r="L277" s="2"/>
     </row>
     <row r="278" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L278" s="8"/>
+      <c r="L278" s="5"/>
     </row>
     <row r="279" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L279" s="2"/>
@@ -3830,13 +4010,13 @@
       <c r="L283" s="2"/>
     </row>
     <row r="288" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L288" s="8"/>
+      <c r="L288" s="5"/>
     </row>
     <row r="290" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L290" s="8"/>
+      <c r="L290" s="5"/>
     </row>
     <row r="293" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L293" s="8"/>
+      <c r="L293" s="5"/>
     </row>
     <row r="296" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L296" s="2"/>
@@ -3845,19 +4025,19 @@
       <c r="L297" s="2"/>
     </row>
     <row r="300" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L300" s="8"/>
+      <c r="L300" s="5"/>
     </row>
     <row r="305" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L305" s="8"/>
+      <c r="L305" s="5"/>
     </row>
     <row r="307" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L307" s="8"/>
+      <c r="L307" s="5"/>
     </row>
     <row r="308" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L308" s="8"/>
+      <c r="L308" s="5"/>
     </row>
     <row r="309" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L309" s="8"/>
+      <c r="L309" s="5"/>
     </row>
     <row r="310" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L310" s="2"/>
@@ -3872,7 +4052,7 @@
       <c r="L316" s="2"/>
     </row>
     <row r="318" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L318" s="8"/>
+      <c r="L318" s="5"/>
     </row>
     <row r="319" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L319" s="2"/>
@@ -3893,13 +4073,13 @@
       <c r="L329" s="2"/>
     </row>
     <row r="334" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L334" s="8"/>
+      <c r="L334" s="5"/>
     </row>
     <row r="336" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L336" s="8"/>
+      <c r="L336" s="5"/>
     </row>
     <row r="339" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L339" s="8"/>
+      <c r="L339" s="5"/>
     </row>
     <row r="342" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L342" s="2"/>
@@ -3908,19 +4088,19 @@
       <c r="L343" s="2"/>
     </row>
     <row r="346" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L346" s="8"/>
+      <c r="L346" s="5"/>
     </row>
     <row r="351" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L351" s="8"/>
+      <c r="L351" s="5"/>
     </row>
     <row r="353" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L353" s="8"/>
+      <c r="L353" s="5"/>
     </row>
     <row r="354" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L354" s="8"/>
+      <c r="L354" s="5"/>
     </row>
     <row r="355" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L355" s="8"/>
+      <c r="L355" s="5"/>
     </row>
     <row r="356" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L356" s="2"/>
@@ -3938,7 +4118,7 @@
       <c r="L362" s="2"/>
     </row>
     <row r="364" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L364" s="8"/>
+      <c r="L364" s="5"/>
     </row>
     <row r="365" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L365" s="2"/>
@@ -3953,7 +4133,7 @@
       <c r="L369" s="2"/>
     </row>
     <row r="370" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L370" s="8"/>
+      <c r="L370" s="5"/>
     </row>
     <row r="371" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L371" s="2"/>

--- a/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
+++ b/temp_always_keep_important_data_elsewhere/radomics-V2.xlsx
@@ -49,6 +49,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
+NGTDM - Neigbouring Gray Tone Difference Matrix - durchschnittlicher Grauwert in der Umgebung fließt in Berechnungen ein
 Coarseness is a measure of average difference between the center voxel and its neighbourhood and is an indication of the spatial rate of change. A higher value indicates a lower spatial change rate and a locally more uniform texture.
 N.B. ∑Ngi=1pisi
 potentially evaluates to 0 (in case of a completely homogeneous image). If this is the case, an arbitrary value of 106 is returned.
@@ -186,6 +187,178 @@
         </r>
       </text>
     </comment>
+    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{337C8D2B-D290-4ACB-95EB-65C299D2C523}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+GLZSM - Gray Level Size Zone Matrix
+zusammenhängende Gruppen von gleichen Grauwert-Voxel (alle 26 Nachbarn zählen dazu) werden gewichtet
+SAE is a measure of the distribution of small size zones, with a greater value indicative of more smaller size zones and more fine textures.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{2CF144B1-7040-44E1-BB82-D6AAF59B2AFF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+LAE is a measure of the distribution of large area size zones, with a greater value indicative of more larger size zones and more coarse textures.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{82A2362F-FC91-4549-9B2A-57612582ECB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LGLZE measures the distribution of lower gray-level size zones, with a higher value indicating a greater proportion of lower gray-level values and size zones in the image.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0" shapeId="0" xr:uid="{F201B208-26D4-4B51-8A01-F8B01ED018A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HGLZE measures the distribution of the higher gray-level values, with a higher value indicating a greater proportion of higher gray-level values and size zones in the image.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="0" shapeId="0" xr:uid="{511371E7-FCB2-4EFF-BF64-6BBBB5128AC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GLN measures the variability of gray-level intensity values in the image, with a lower value indicating more homogeneity in intensity values.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A27" authorId="0" shapeId="0" xr:uid="{96821D6F-42C3-4C20-AFF3-8DCD9D6C2929}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SZN measures the variability of size zone volumes in the image, with a lower value indicating more homogeneity in size zone volumes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{6DC33509-B3F3-490D-95DC-FEFD9777FABD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ZP measures the coarseness of the texture by taking the ratio of number of zones and number of voxels in the ROI.
+Values are in range 1Np≤ZP≤1
+, with higher values indicating a larger portion of the ROI consists of small zones (indicates a more fine texture).</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I28" authorId="0" shapeId="0" xr:uid="{5F43E9CC-9A59-4AA3-B0CD-ECF6AB93CC44}">
       <text>
         <r>
@@ -210,6 +383,54 @@
 Dieses Feature evaluiert den Anteil der real vorhandenen Zonen an den maximal möglichen
 Zonen (dies entspricht genau der Voxelzahl des ROI). Uniforme ROIs erzeugen einen geringen
 Prozentsatz.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{06E32C50-2262-4CA9-A017-11DAD543CF5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+GLV measures the variance in gray level intensities for the zones.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{0FBDC998-46B4-4070-89AF-BA7E86A9028B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ZV measures the variance in zone size volumes for the zones.</t>
         </r>
       </text>
     </comment>
@@ -702,7 +923,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,8 +954,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -742,12 +969,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -772,11 +1017,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -795,6 +1035,85 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,9 +1539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE9F08D-8687-4A4B-9A20-EFAFFA74EC70}">
   <dimension ref="A1:AC375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E17" sqref="E17"/>
+      <selection pane="topRight" activeCell="E20" sqref="E20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,19 +1549,20 @@
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.77734375" customWidth="1"/>
     <col min="6" max="6" width="33.33203125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="19.44140625" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" customWidth="1"/>
     <col min="12" max="12" width="22.77734375" customWidth="1"/>
     <col min="13" max="13" width="19.5546875" customWidth="1"/>
     <col min="14" max="14" width="25.109375" customWidth="1"/>
     <col min="15" max="15" width="32" customWidth="1"/>
     <col min="17" max="17" width="17.88671875" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -1332,29 +1652,29 @@
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>4.265358720618762</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="20">
+      <c r="J2" s="15"/>
+      <c r="K2" s="17">
         <v>992.25</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="17">
         <v>992.25</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="17">
         <v>991.03449999999998</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="17">
         <v>992.25</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="17">
         <v>952.56</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="17">
         <v>952.56</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="17">
         <v>971.38789999999995</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="17">
         <v>990.66240000000005</v>
       </c>
     </row>
@@ -1389,33 +1709,33 @@
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>-0.73044837198290158</v>
       </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="19">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16">
         <v>0</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="16">
         <v>0</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="16">
         <v>0</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1446,490 +1766,490 @@
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>-1.5703603554367678</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="19">
+      <c r="J4" s="15"/>
+      <c r="K4" s="16">
         <v>-2</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="16">
         <v>-2</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <v>-19951</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="16">
         <v>-2</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="17">
         <v>-18333</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="17">
         <v>-18333</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <v>-19141</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="17">
         <v>-19936</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:29" s="45" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="28">
         <v>1.3225614467928201E-3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="29">
         <v>2.4892149386122001E-3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="29">
         <v>2.86100569135583E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="29">
         <v>1.1206275227241E-3</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="29">
         <v>3.3697569279721701E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="29">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.1206275227241E-3</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="29">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>3.3697569279721701E-2</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="30">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>30.070267413928299</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="43"/>
+      <c r="K5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="44" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:29" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="33">
         <v>78.823958360438297</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="34">
         <v>14.252357255349599</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="34">
         <v>14.2653654660991</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="34">
         <v>64.8367268552403</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="34">
         <v>11.822671256119699</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="34">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>11.822671256119699</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="34">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>78.823958360438297</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="35">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>6.6671868525175411</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="7" t="s">
+      <c r="J6" s="36"/>
+      <c r="K6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:29" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="39">
         <v>0.57655114896236104</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="38">
         <v>0.94319714156349599</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="38">
         <v>0.96462525037383695</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="38">
         <v>0.84155620308673496</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="38">
         <v>0.96220019540625401</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="38">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.84155620308673496</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="38">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.96462525037383695</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="40">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.1462398433232366</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="6">
+      <c r="J7" s="36"/>
+      <c r="K7" s="41">
         <v>15620</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="41">
         <v>15620</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="41">
         <v>17030</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="41">
         <v>17774</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="41">
         <v>18161</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="41">
         <v>18161</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="41">
         <v>19324</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="41">
         <v>19741</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:29" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="39">
         <v>0.23257992687607801</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="38">
         <v>0.41331080199064602</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="38">
         <v>0.54979124664533396</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="38">
         <v>0.28898515037825401</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="38">
         <v>0.52931555651385298</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="38">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.28898515037825401</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="38">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.54979124664533396</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="40">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.9024896120984405</v>
       </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="36"/>
+      <c r="K8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:29" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="39">
         <v>5.0174674858853999E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="38">
         <v>4.9444948915902598E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="38">
         <v>4.1155629107421602E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="38">
         <v>6.9126873644987999E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="38">
         <v>3.4433833318249399E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="38">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>3.4433833318249399E-3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="38">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>6.9126873644987999E-3</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="40">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>2.0075276837781471</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="36"/>
+      <c r="K9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="7" t="s">
+      <c r="M9" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="37" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:29" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="39">
         <v>9.8915046298639204</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="38">
         <v>9.0656813894223394</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="38">
         <v>7.8094061147113001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="38">
         <v>10.2697560320119</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="38">
         <v>7.3705809394614903</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="38">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>7.3705809394614903</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="38">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>10.2697560320119</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="40">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.393344176851578</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="8">
+      <c r="J10" s="36"/>
+      <c r="K10" s="42">
         <v>3.6621000000000001</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="42">
         <v>3.6621000000000001</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="42">
         <v>3.6215000000000002</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="42">
         <v>3.6621000000000001</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="42">
         <v>3.4134000000000002</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="42">
         <v>3.4134000000000002</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="42">
         <v>3.4821</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="42">
         <v>3.7128000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:29" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="39">
         <v>2.2640275304543898E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="38">
         <v>3.0626406749298101E-2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="38">
         <v>4.9221503906226698E-2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="38">
         <v>4.9956491397040198E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="38">
         <v>3.81879954488532E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="38">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>3.0626406749298101E-2</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="38">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>4.9956491397040198E-2</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="40">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.6311574454677125</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="8">
+      <c r="J11" s="36"/>
+      <c r="K11" s="42">
         <v>0.61034999999999995</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="42">
         <v>0.61034999999999995</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="42">
         <v>0.60968</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="42">
         <v>0.61034999999999995</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="42">
         <v>0.58501000000000003</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="42">
         <v>0.58501000000000003</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="42">
         <v>0.59708000000000006</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="42">
         <v>0.60929999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:29" s="47" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="46">
         <v>6.9179624620978899</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="47">
         <v>2.7412687759434098</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="47">
         <v>2.3001205094108998</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="47">
         <v>5.8802350985768701</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="47">
         <v>2.35026560157762</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="47">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.3001205094108998</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="47">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>6.9179624620978899</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="48">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>3.0076521790024375</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="7" t="s">
+      <c r="J12" s="49"/>
+      <c r="K12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="M12" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="46"/>
+    </row>
+    <row r="13" spans="1:29" s="10" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1960,29 +2280,29 @@
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.1592011386820018</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="19" t="s">
+      <c r="M13" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="N13" s="19" t="s">
+      <c r="N13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="O13" s="19" t="s">
+      <c r="O13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="19" t="s">
+      <c r="R13" s="16" t="s">
         <v>120</v>
       </c>
       <c r="AC13" s="9"/>
@@ -2018,803 +2338,803 @@
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>4.68467983510571</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="20">
+      <c r="J14" s="15"/>
+      <c r="K14" s="17">
         <v>804847</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="17">
         <v>804847</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="17">
         <v>472115</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="17">
         <v>329121</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="17">
         <v>397624</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="17">
         <v>397624</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <v>235524</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="17">
         <v>168160</v>
       </c>
       <c r="AC14" s="9"/>
     </row>
-    <row r="15" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="19">
         <v>2.9859797554021902E-2</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>2.57469882473336E-2</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="20">
         <v>2.5830479995548501E-2</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="20">
         <v>2.0490666090028101E-2</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="20">
         <v>3.6686848538184602E-2</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.0490666090028101E-2</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>3.6686848538184602E-2</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.7904175675401037</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26" t="s">
+      <c r="J15" s="22"/>
+      <c r="K15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="N15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AC15" s="22"/>
-    </row>
-    <row r="16" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="19">
         <v>0.91509596774341295</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>0.76082417943955105</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="20">
         <v>0.68551103815709802</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="20">
         <v>0.86314848873531702</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="20">
         <v>0.656301420700384</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.656301420700384</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.91509596774341295</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.3943226981999393</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26" t="s">
+      <c r="J16" s="22"/>
+      <c r="K16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="P16" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="Q16" s="26" t="s">
+      <c r="Q16" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="R16" s="26" t="s">
+      <c r="R16" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="AC16" s="22"/>
-    </row>
-    <row r="17" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="AC16" s="19"/>
+    </row>
+    <row r="17" spans="1:29" s="20" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="19">
         <v>0.95539754363283802</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>0.85124547882877699</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="20">
         <v>0.64771657471204003</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="20">
         <v>0.91542258869480297</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="20">
         <v>0.67618591666282102</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.64771657471204003</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.95539754363283802</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.4750240783286825</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="N17" s="26" t="s">
+      <c r="N17" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="P17" s="26" t="s">
+      <c r="P17" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="R17" s="26" t="s">
+      <c r="R17" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="AC17" s="22"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="AC17" s="19"/>
+    </row>
+    <row r="18" spans="1:29" s="29" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="28">
         <v>2.6959862448168202E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="29">
         <v>1.9810511968967399E-2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="29">
         <v>3.2887752814288802E-2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="29">
         <v>1.8631858204439401E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="29">
         <v>4.2559920106692302E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="29">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.8631858204439401E-2</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="29">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>4.2559920106692302E-2</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="30">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>2.2842552599800046</v>
       </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="7" t="s">
+      <c r="J18" s="31"/>
+      <c r="K18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="P18" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="AC18" s="28"/>
+    </row>
+    <row r="19" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="9">
         <v>520.98680649526398</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="10">
         <v>554.91359724294705</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>670.83182221553102</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="10">
         <v>1024.6835388654199</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="10">
         <v>480.61430192187902</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="10">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>480.61430192187902</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="10">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1024.6835388654199</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>2.1320288113939148</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="6">
+      <c r="J19" s="15"/>
+      <c r="K19" s="17">
         <v>25000</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="17">
         <v>25000</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="17">
         <v>24783</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="17">
         <v>25000</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="17">
         <v>24659</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="17">
         <v>24659</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="17">
         <v>24806</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19" s="17">
         <v>25024</v>
       </c>
-      <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="AC19" s="9"/>
+    </row>
+    <row r="20" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="19">
         <v>595.82087280108306</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="20">
         <v>872.27338274901501</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="20">
         <v>1064.45735260268</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="20">
         <v>1259.20688715192</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="20">
         <v>823.73035682296995</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>823.73035682296995</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1259.20688715192</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.5286639331935408</v>
       </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="22"/>
+      <c r="K20" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="P20" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="Q20" s="7" t="s">
+      <c r="Q20" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="R20" s="7" t="s">
+      <c r="R20" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="19">
         <v>5.9370961452590902E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="20">
         <v>8.7022395124079308E-3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="20">
         <v>2.6032083077960999E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="20">
         <v>2.8874205465106901E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="20">
         <v>3.87163702220355E-3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.6032083077960999E-3</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>5.9370961452590902E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>22.806842339426499</v>
       </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="7" t="s">
+      <c r="L21" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="P21" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="24">
         <v>13874</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="24">
         <v>12052</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="19">
         <v>1.13388165961205E-4</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="25">
         <v>1.9143938158498701E-5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="25">
         <v>4.83412894108827E-6</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="25">
         <v>2.5806423486746799E-5</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="25">
         <v>1.6463736205269099E-5</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="26">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>4.83412894108827E-6</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="26">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1.13388165961205E-4</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>23.455759526281646</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="6">
+      <c r="J22" s="22"/>
+      <c r="K22" s="24">
         <v>503030</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="24">
         <v>503030</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="24">
         <v>301993</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="24">
         <v>205701</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="24">
         <v>282236</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="24">
         <v>282236</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="24">
         <v>161942</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="24">
         <v>88606</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="19">
         <v>0.66216914743105304</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="20">
         <v>0.52585659280836905</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="20">
         <v>0.58385541969906496</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="20">
         <v>0.67108160075977596</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="20">
         <v>0.42818144248497703</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.42818144248497703</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.67108160075977596</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.5672832453109438</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="6">
+      <c r="J23" s="22"/>
+      <c r="K23" s="24">
         <v>2012118</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="24">
         <v>2012118</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="24">
         <v>1152604</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="24">
         <v>822803</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="24">
         <v>859176</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="24">
         <v>859176</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q23" s="24">
         <v>529855</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R23" s="24">
         <v>486377</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="19">
         <v>5.2307692307692299</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="20">
         <v>1616.2406895280201</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="20">
         <v>24381.35111023</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="20">
         <v>155.64084385267199</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="20">
         <v>11413.4091370558</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>155.64084385267199</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>24381.35111023</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>156.65136802592212</v>
       </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="8">
+      <c r="J24" s="22"/>
+      <c r="K24" s="27">
         <v>2.5769000000000002</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="27">
         <v>2.5769000000000002</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="27">
         <v>1.0172000000000001</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="27">
         <v>1.0495000000000001</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="27">
         <v>3.8094999999999999</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="27">
         <v>3.8094999999999999</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="27">
         <v>1.897</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="27">
         <v>1.5328999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="19">
         <v>2.9852071005917202E-2</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="20">
         <v>3.2842823140461698E-2</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="20">
         <v>3.8142694801213198E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="20">
         <v>2.6213786651107501E-2</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="20">
         <v>3.9703161637764398E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="20">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>2.6213786651107501E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="20">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>3.9703161637764398E-2</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="21">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.5145908588558299</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="7" t="s">
+      <c r="J25" s="22"/>
+      <c r="K25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="27">
         <v>5.8940999999999999</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="27">
         <v>7.1146000000000003</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="27">
         <v>2.6766000000000001</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="27">
         <v>2.3365</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:29" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="51">
         <v>2.59739282791712E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="52">
         <v>1.38673482530513E-2</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="52">
         <v>1.3306090676521E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="52">
         <v>1.4391636711885401E-2</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="52">
         <v>2.2372626949927601E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="52">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.3306090676521E-2</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="52">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>2.59739282791712E-2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="53">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>1.9520330133480139</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="8">
+      <c r="J26" s="54"/>
+      <c r="K26" s="55">
         <v>1.5625E-4</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="55">
         <v>1.5625E-4</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="55">
         <v>6.6683999999999997E-3</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="55">
         <v>9.7656000000000001E-6</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="55">
         <v>7.0529999999999996E-4</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="55">
         <v>7.0529999999999996E-4</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="55">
         <v>0.21054999999999999</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="55">
         <v>9.8125999999999999E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:29" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="56">
         <v>503.472471244926</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="57">
         <v>502.474239462855</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="57">
         <v>616.93068191306099</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="57">
         <v>975.94492030429501</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="57">
         <v>441.79717939396198</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="57">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>441.79717939396198</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="57">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>975.94492030429501</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>2.2090338413727619</v>
       </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="7">
+      <c r="J27" s="15"/>
+      <c r="K27" s="58">
         <v>64000000</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="58">
         <v>64000000</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="58">
         <v>21393600</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="59">
         <v>10240000000000</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="58">
         <v>16640000</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="58">
         <v>16640000</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="58">
         <v>5491600</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="59">
         <v>10256000000000</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:29" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="56">
         <v>3.1952232204419603E-2</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="57">
         <v>7.99646099859328E-2</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="57">
         <v>0.96609788957646203</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="57">
         <v>5.8617928303400103E-2</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="57">
         <v>0.60370731979291903</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="57">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>5.8617928303400103E-2</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="57">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.96609788957646203</v>
       </c>
@@ -2822,147 +3142,147 @@
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>16.481269767434345</v>
       </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="L28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="O28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="7" t="s">
+      <c r="Q28" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="R28" s="7" t="s">
+      <c r="R28" s="58" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <v>0.408934911242604</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="10">
         <v>0.262418942278828</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="10">
         <v>0.31853709953519099</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="10">
         <v>0.41709435094347902</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="10">
         <v>0.18217939137828801</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="10">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>0.18217939137828801</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="10">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.41709435094347902</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="11">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>2.289470547617539</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="7">
+      <c r="J29" s="15"/>
+      <c r="K29" s="16">
         <v>1</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="16">
         <v>1</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="M29" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="16">
         <v>1</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="O29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="P29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q29" s="7" t="s">
+      <c r="Q29" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:29" s="61" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="60">
         <v>0.54621848739495804</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="61">
         <v>0.13864499060618801</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="61">
         <v>0.122970403237603</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="61">
         <v>0.40782792665726397</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="61">
         <v>7.3860227954409094E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="61">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>7.3860227954409094E-2</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="61">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>0.54621848739495804</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="62">
         <f>(Tabelle3[[#This Row],[max]]/Tabelle3[[#This Row],[min]])</f>
         <v>7.395299236445851</v>
       </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="8">
+      <c r="J30" s="63"/>
+      <c r="K30" s="64">
         <v>1.25</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="64">
         <v>1.25</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="64">
         <v>2.5</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="64">
         <v>0.3125</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="64">
         <v>2.5</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="64">
         <v>2.5</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="Q30" s="64">
         <v>5</v>
       </c>
-      <c r="R30" s="8">
+      <c r="R30" s="64">
         <v>0.3125</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -3323,11 +3643,11 @@
       <c r="F37" s="2">
         <v>6.7074435266909906E-5</v>
       </c>
-      <c r="G37" s="21">
+      <c r="G37" s="18">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>1.7442027826775101E-5</v>
       </c>
-      <c r="H37" s="21">
+      <c r="H37" s="18">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>1.3651043949521401E-2</v>
       </c>
@@ -3365,7 +3685,7 @@
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="14">
         <v>5.3486575672071999E-5</v>
       </c>
       <c r="C38" s="2">
@@ -3380,11 +3700,11 @@
       <c r="F38" s="2">
         <v>7.1401442710670901E-5</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="18">
         <f>MIN(Tabelle3[[#This Row],[totalBlack]:[americaner - nur Grenzbereich ]])</f>
         <v>9.6939104436278199E-7</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="18">
         <f>MAX(Tabelle3[[#This Row],[AlmostWhite]:[americaner - nur Grenzbereich ]])</f>
         <v>7.1401442710670901E-5</v>
       </c>
